--- a/db.xlsx
+++ b/db.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romko\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="17895" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="573">
   <si>
     <t>Name</t>
   </si>
@@ -1613,6 +1618,129 @@
   </si>
   <si>
     <t>Apocalypse, puzzle</t>
+  </si>
+  <si>
+    <t>Crystal Dynamics, Nixxes Software, Feral Interactive, Buzz Monkey Software, Santa Cruz Games</t>
+  </si>
+  <si>
+    <t>Crystal Dynamics, Eidos-Montréal, Nixxes</t>
+  </si>
+  <si>
+    <t>Crystal Dynamics, Eidos Montreal, Nixxes Software</t>
+  </si>
+  <si>
+    <t>https://wallpapercave.com/wp/wp7480220.jpg</t>
+  </si>
+  <si>
+    <t>https://images8.alphacoders.com/107/thumb-1920-1078901.jpg</t>
+  </si>
+  <si>
+    <t>https://www.well-played.com.au/wp-content/uploads/2020/05/m2logo.jpg</t>
+  </si>
+  <si>
+    <t>https://images2.alphacoders.com/509/thumb-1920-509156.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpapercave.com/wp/wp2867631.jpg</t>
+  </si>
+  <si>
+    <t>https://images.hdqwalls.com/wallpapers/mafia-iii-definitive-edition-be.jpg</t>
+  </si>
+  <si>
+    <t>https://images.hdqwalls.com/wallpapers/call-of-duty-modern-warfare-remastered-lu.jpg</t>
+  </si>
+  <si>
+    <t>https://images.hdqwalls.com/wallpapers/call-of-duty-modern-warfare-2-campaign-remastered-4k-vw.jpg</t>
+  </si>
+  <si>
+    <t>https://images2.alphacoders.com/939/thumb-1920-939737.jpg</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/residentevil/images/1/11/About_bg_re3.jpg/revision/latest?cb=20210226115827&amp;path-prefix=ru</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/e7/31/51/e7315109ffc6599e2a5372fc95b24ba4.jpg</t>
+  </si>
+  <si>
+    <t>https://images7.alphacoders.com/330/thumb-1920-330535.jpg</t>
+  </si>
+  <si>
+    <t>https://images5.alphacoders.com/724/724192.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/TgAyj-mtDg4/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.mos.cms.futurecdn.net/G5sChiPXCGDC855Ao78HxR.jpg</t>
+  </si>
+  <si>
+    <t>https://ixbt.online/gametech/covers/2021/04/24/HwYAEJMXBGhA2sk1o8WipeuxPPDOsY38o2OUG5S6.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpapercave.com/wp/6IyEN0s.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/ff/7d/d6/ff7dd6249fd6745653fc37a8d014aa01.jpg</t>
+  </si>
+  <si>
+    <t>https://images3.alphacoders.com/828/thumb-1920-828135.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/653677.jpg</t>
+  </si>
+  <si>
+    <t>https://images7.alphacoders.com/800/thumb-1920-800857.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/b4/50/ca/b450ca40de0bd9849cbc0fdd67163883.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/31/01/f6/3101f69af8406ff979d8b4c1032badbe.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/672018.jpg</t>
+  </si>
+  <si>
+    <t>https://images7.alphacoders.com/605/thumb-1920-605394.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/1482238.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/957573.jpg</t>
+  </si>
+  <si>
+    <t>https://ixbt.online/gametech/games/2021/02/01/bf5ygoPgEzF3GVVBMitRZdB1uIMxkeUM9qUWj7lG.jpg</t>
+  </si>
+  <si>
+    <t>https://images2.alphacoders.com/664/664487.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/0d/7f/44/0d7f44c79af0b05f2b8ae51cd812a04c.png</t>
+  </si>
+  <si>
+    <t>https://images.alphacoders.com/148/thumb-1920-148221.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/3270333.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/28/36/33/2836330c4eb24377b5c4794669a2ec41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.playground.ru/p/FcZcnV95D0IyFzSNuuLPnw.jpeg</t>
+  </si>
+  <si>
+    <t>Blizzard Entertainment, Blizzard North</t>
+  </si>
+  <si>
+    <t>Blizzard Entertainment, Vicarious Visions, Blizzard North</t>
+  </si>
+  <si>
+    <t>Blizzard Entertainment</t>
+  </si>
+  <si>
+    <t>Co-op, puzzle</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1817,16 +1945,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2035,8 +2168,8 @@
   </sheetPr>
   <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3477,7 +3610,9 @@
         <v>94</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -3520,7 +3655,9 @@
         <v>94</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" s="32" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -3563,7 +3700,9 @@
         <v>94</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="32" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -3606,7 +3745,9 @@
         <v>94</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" s="32" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -3649,7 +3790,9 @@
         <v>94</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" s="32" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -3692,7 +3835,9 @@
         <v>94</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" s="32" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3735,7 +3880,9 @@
         <v>94</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" s="32" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -3778,7 +3925,9 @@
         <v>94</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" s="32" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -3821,7 +3970,9 @@
         <v>504</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" s="32" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1">
       <c r="A43" s="23"/>
@@ -3848,8 +3999,12 @@
       <c r="A44" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2008</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>525</v>
       </c>
@@ -3881,14 +4036,20 @@
         <v>94</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" s="32" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2015</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>525</v>
       </c>
@@ -3920,14 +4081,20 @@
         <v>94</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" s="32" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2018</v>
+      </c>
       <c r="D46" s="2" t="s">
         <v>525</v>
       </c>
@@ -3959,7 +4126,9 @@
         <v>94</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" s="32" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
       <c r="A47" s="23"/>
@@ -4288,6 +4457,9 @@
       <c r="A65" s="1" t="s">
         <v>499</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>268</v>
       </c>
@@ -4678,6 +4850,9 @@
       <c r="M89" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O89" s="33" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="90" spans="1:21" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
@@ -4720,7 +4895,9 @@
         <v>94</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+      <c r="O90" s="32" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="91" spans="1:21" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
@@ -4735,6 +4912,9 @@
       <c r="M91" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O91" s="33" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="92" spans="1:21" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
@@ -4749,6 +4929,9 @@
       <c r="M92" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O92" s="33" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="93" spans="1:21" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
@@ -4766,6 +4949,9 @@
       <c r="M93" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O93" s="33" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="94" spans="1:21" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
@@ -4783,6 +4969,9 @@
       <c r="M94" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O94" s="33" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="95" spans="1:21" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
@@ -4818,7 +5007,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1">
+    <row r="97" spans="1:15" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>286</v>
       </c>
@@ -4835,7 +5024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1">
+    <row r="98" spans="1:15" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>287</v>
       </c>
@@ -4852,13 +5041,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1">
+    <row r="99" spans="1:15" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="C99" s="1">
+        <v>2008</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>314</v>
       </c>
@@ -4868,14 +5060,20 @@
       <c r="M99" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O99" s="33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="C100" s="1">
+        <v>2013</v>
+      </c>
       <c r="D100" s="1" t="s">
         <v>314</v>
       </c>
@@ -4885,11 +5083,17 @@
       <c r="M100" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O100" s="33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="D101" s="1" t="s">
         <v>314</v>
       </c>
@@ -4899,8 +5103,11 @@
       <c r="M101" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O101" s="33" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>291</v>
       </c>
@@ -4913,8 +5120,11 @@
       <c r="M102" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O102" s="33" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>292</v>
       </c>
@@ -4927,8 +5137,11 @@
       <c r="M103" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O103" s="33" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>293</v>
       </c>
@@ -4941,8 +5154,11 @@
       <c r="M104" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O104" s="33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>294</v>
       </c>
@@ -4955,8 +5171,11 @@
       <c r="M105" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O105" s="33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>295</v>
       </c>
@@ -4969,8 +5188,11 @@
       <c r="M106" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O106" s="33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>296</v>
       </c>
@@ -4983,8 +5205,11 @@
       <c r="M107" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O107" s="33" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>299</v>
       </c>
@@ -5001,7 +5226,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1">
+    <row r="109" spans="1:15" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>297</v>
       </c>
@@ -5018,7 +5243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1">
+    <row r="110" spans="1:15" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>298</v>
       </c>
@@ -5035,7 +5260,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1">
+    <row r="111" spans="1:15" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>309</v>
       </c>
@@ -5048,8 +5273,11 @@
       <c r="M111" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O111" s="33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>322</v>
       </c>
@@ -5099,6 +5327,9 @@
       <c r="M114" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O114" s="33" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="115" spans="1:23" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
@@ -5119,6 +5350,9 @@
       <c r="M115" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O115" s="33" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="116" spans="1:23" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
@@ -5127,6 +5361,9 @@
       <c r="B116" s="1" t="s">
         <v>516</v>
       </c>
+      <c r="C116" s="1">
+        <v>2015</v>
+      </c>
       <c r="D116" s="1" t="s">
         <v>314</v>
       </c>
@@ -5138,6 +5375,9 @@
       </c>
       <c r="M116" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="15.75" customHeight="1">
@@ -5196,6 +5436,12 @@
       <c r="A120" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1996</v>
+      </c>
       <c r="D120" s="1" t="s">
         <v>314</v>
       </c>
@@ -5207,6 +5453,9 @@
       </c>
       <c r="M120" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="O120" s="33" t="s">
+        <v>549</v>
       </c>
       <c r="P120" s="29"/>
       <c r="Q120" s="29"/>
@@ -5221,6 +5470,12 @@
       <c r="A121" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2000</v>
+      </c>
       <c r="D121" s="1" t="s">
         <v>314</v>
       </c>
@@ -5232,6 +5487,9 @@
       </c>
       <c r="M121" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="O121" s="33" t="s">
+        <v>550</v>
       </c>
       <c r="P121" s="29"/>
       <c r="Q121" s="29"/>
@@ -5246,6 +5504,12 @@
       <c r="A122" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2012</v>
+      </c>
       <c r="D122" s="1" t="s">
         <v>314</v>
       </c>
@@ -5257,6 +5521,9 @@
       </c>
       <c r="M122" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="O122" s="33" t="s">
+        <v>551</v>
       </c>
       <c r="P122" s="29"/>
       <c r="Q122" s="29"/>
@@ -6001,7 +6268,7 @@
         <v>2011</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>328</v>
+        <v>572</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>42</v>
@@ -6169,8 +6436,40 @@
     <hyperlink ref="O29" r:id="rId27"/>
     <hyperlink ref="O31" r:id="rId28"/>
     <hyperlink ref="O32" r:id="rId29"/>
+    <hyperlink ref="O36" r:id="rId30"/>
+    <hyperlink ref="O35" r:id="rId31"/>
+    <hyperlink ref="O92" r:id="rId32"/>
+    <hyperlink ref="O93" r:id="rId33"/>
+    <hyperlink ref="O37" r:id="rId34"/>
+    <hyperlink ref="O38" r:id="rId35"/>
+    <hyperlink ref="O39" r:id="rId36"/>
+    <hyperlink ref="O40" r:id="rId37"/>
+    <hyperlink ref="O41" r:id="rId38"/>
+    <hyperlink ref="O42" r:id="rId39"/>
+    <hyperlink ref="O44" r:id="rId40"/>
+    <hyperlink ref="O45" r:id="rId41"/>
+    <hyperlink ref="O46" r:id="rId42"/>
+    <hyperlink ref="O120" r:id="rId43"/>
+    <hyperlink ref="O121" r:id="rId44"/>
+    <hyperlink ref="O122" r:id="rId45"/>
+    <hyperlink ref="O115" r:id="rId46"/>
+    <hyperlink ref="O114" r:id="rId47"/>
+    <hyperlink ref="O111" r:id="rId48"/>
+    <hyperlink ref="O91" r:id="rId49"/>
+    <hyperlink ref="O90" r:id="rId50"/>
+    <hyperlink ref="O89" r:id="rId51"/>
+    <hyperlink ref="O94" r:id="rId52"/>
+    <hyperlink ref="O99" r:id="rId53"/>
+    <hyperlink ref="O100" r:id="rId54"/>
+    <hyperlink ref="O105" r:id="rId55"/>
+    <hyperlink ref="O104" r:id="rId56"/>
+    <hyperlink ref="O103" r:id="rId57"/>
+    <hyperlink ref="O102" r:id="rId58"/>
+    <hyperlink ref="O101" r:id="rId59"/>
+    <hyperlink ref="O106" r:id="rId60"/>
+    <hyperlink ref="O107" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romko\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="17895" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="589">
   <si>
     <t>Name</t>
   </si>
@@ -63,9 +58,6 @@
     <t>NFS Underground</t>
   </si>
   <si>
-    <t>racer</t>
-  </si>
-  <si>
     <t>128 МБ</t>
   </si>
   <si>
@@ -276,9 +268,6 @@
     <t>The Surge</t>
   </si>
   <si>
-    <t>Souls like</t>
-  </si>
-  <si>
     <t>8 GB</t>
   </si>
   <si>
@@ -435,9 +424,6 @@
     <t>Fahrenheit</t>
   </si>
   <si>
-    <t>kinco</t>
-  </si>
-  <si>
     <t>Pentium III 800 MHz</t>
   </si>
   <si>
@@ -468,18 +454,12 @@
     <t>Nvidia GeForce GTX 970/AMD Radeon R9 390</t>
   </si>
   <si>
-    <t>Beyond: Two Souls</t>
-  </si>
-  <si>
     <t>49 GB</t>
   </si>
   <si>
     <t>Nvidia GeForce GTX 970/AMD Radeon R9 391</t>
   </si>
   <si>
-    <t>Detroit: Become Human</t>
-  </si>
-  <si>
     <t>Intel Core i5-2300 2.8 GHz/AMD Ryzen 3 1200 3.1GHz or AMD FX-8350 4.2GHz</t>
   </si>
   <si>
@@ -600,9 +580,6 @@
     <t>https://images5.alphacoders.com/609/thumb-1920-609173.jpg</t>
   </si>
   <si>
-    <t>Sekiro: Shadows Die Twice</t>
-  </si>
-  <si>
     <t>https://images5.alphacoders.com/981/thumb-1920-981500.jpg</t>
   </si>
   <si>
@@ -693,9 +670,6 @@
     <t>Ghost Games</t>
   </si>
   <si>
-    <t>Need For Speed</t>
-  </si>
-  <si>
     <t>Intel Core i3-4130</t>
   </si>
   <si>
@@ -732,15 +706,6 @@
     <t>Mafia 3</t>
   </si>
   <si>
-    <t>Mafia: Definitive Edition</t>
-  </si>
-  <si>
-    <t>Mafia 2: Definitive Edition</t>
-  </si>
-  <si>
-    <t>Mafia 3: Definitive Edition</t>
-  </si>
-  <si>
     <t>COD: MW 1</t>
   </si>
   <si>
@@ -759,9 +724,6 @@
     <t>Resident evil 2  Remake</t>
   </si>
   <si>
-    <t>re</t>
-  </si>
-  <si>
     <t>EA Canada</t>
   </si>
   <si>
@@ -792,9 +754,6 @@
     <t>COD: Black OPS 4</t>
   </si>
   <si>
-    <t>Stealth</t>
-  </si>
-  <si>
     <t>IO Interactive A/S</t>
   </si>
   <si>
@@ -963,15 +922,6 @@
     <t xml:space="preserve">Borderlands </t>
   </si>
   <si>
-    <t>Open world</t>
-  </si>
-  <si>
-    <t>Apocalypse</t>
-  </si>
-  <si>
-    <t>Simulators</t>
-  </si>
-  <si>
     <t>A way out</t>
   </si>
   <si>
@@ -984,9 +934,6 @@
     <t>It takes two</t>
   </si>
   <si>
-    <t>Co-op</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prototype </t>
   </si>
   <si>
@@ -1005,9 +952,6 @@
     <t>Stalker: Shadow of Chernobyl</t>
   </si>
   <si>
-    <t>puzzle</t>
-  </si>
-  <si>
     <t>Portal</t>
   </si>
   <si>
@@ -1054,27 +998,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nvidia GeForce 400 Series/AMD Radeon HD 7000 series </t>
-  </si>
-  <si>
-    <t>92 GB</t>
-  </si>
-  <si>
-    <t>91 GB</t>
-  </si>
-  <si>
-    <t>90 GB</t>
-  </si>
-  <si>
-    <t>89 GB</t>
-  </si>
-  <si>
-    <t>88 GB</t>
-  </si>
-  <si>
-    <t>87 GB</t>
-  </si>
-  <si>
-    <t>86 GB</t>
   </si>
   <si>
     <t>85 GB</t>
@@ -1368,9 +1291,6 @@
     <t>Hangar 13</t>
   </si>
   <si>
-    <t>FromSoftware, Inc</t>
-  </si>
-  <si>
     <t>Studio MDHR Entertainment Inc.</t>
   </si>
   <si>
@@ -1506,18 +1426,9 @@
     <t>Hazelight Studios</t>
   </si>
   <si>
-    <t>loli</t>
-  </si>
-  <si>
     <t>AMD R7 260X/Nvidia GTX 660</t>
   </si>
   <si>
-    <t>Sandbox, survival</t>
-  </si>
-  <si>
-    <t>Co-op, platformer</t>
-  </si>
-  <si>
     <t>Dice</t>
   </si>
   <si>
@@ -1599,155 +1510,289 @@
     <t>Half-Life 2 Complete Edition</t>
   </si>
   <si>
+    <t>Titanfall 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanfall </t>
+  </si>
+  <si>
+    <t>FromSoftware</t>
+  </si>
+  <si>
+    <t>Dying light</t>
+  </si>
+  <si>
+    <t>Outlast 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlast </t>
+  </si>
+  <si>
+    <t>Left4dead</t>
+  </si>
+  <si>
+    <t>The Dark Pictures Anthology: Little Hope</t>
+  </si>
+  <si>
+    <t>The Dark Pictures Anthology: House of Ashes</t>
+  </si>
+  <si>
+    <t>The Forest</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>Forza Horizon 2</t>
+  </si>
+  <si>
+    <t>Forza Horizon 3</t>
+  </si>
+  <si>
+    <t>Forza Horizon 4</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>ow</t>
+  </si>
+  <si>
+    <t>ow, legend</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>stels</t>
+  </si>
+  <si>
+    <t>racer</t>
+  </si>
+  <si>
+    <t>Souls like</t>
+  </si>
+  <si>
+    <t>re, adven, puzzle</t>
+  </si>
+  <si>
+    <t>shooters, puzzle</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>pmr</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>puzzle, legend</t>
+  </si>
+  <si>
+    <t>Souls like, pmr</t>
+  </si>
+  <si>
     <t>adven, puzzle</t>
   </si>
   <si>
-    <t>re, adven, puzzle</t>
+    <t>shooters, puzzle, legend</t>
+  </si>
+  <si>
+    <t>zombie, puzzle, legend</t>
+  </si>
+  <si>
+    <t>Sandbox, survival, legend</t>
+  </si>
+  <si>
+    <t>re, shooters</t>
+  </si>
+  <si>
+    <t>re, ow</t>
   </si>
   <si>
     <t>re, puzzle</t>
   </si>
   <si>
-    <t>Titanfall 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanfall </t>
-  </si>
-  <si>
-    <t>shooters, puzzle</t>
-  </si>
-  <si>
-    <t>Apocalypse, puzzle</t>
-  </si>
-  <si>
-    <t>Crystal Dynamics, Nixxes Software, Feral Interactive, Buzz Monkey Software, Santa Cruz Games</t>
-  </si>
-  <si>
-    <t>Crystal Dynamics, Eidos-Montréal, Nixxes</t>
-  </si>
-  <si>
-    <t>Crystal Dynamics, Eidos Montreal, Nixxes Software</t>
-  </si>
-  <si>
-    <t>https://wallpapercave.com/wp/wp7480220.jpg</t>
-  </si>
-  <si>
-    <t>https://images8.alphacoders.com/107/thumb-1920-1078901.jpg</t>
-  </si>
-  <si>
-    <t>https://www.well-played.com.au/wp-content/uploads/2020/05/m2logo.jpg</t>
-  </si>
-  <si>
-    <t>https://images2.alphacoders.com/509/thumb-1920-509156.jpg</t>
-  </si>
-  <si>
-    <t>https://wallpapercave.com/wp/wp2867631.jpg</t>
-  </si>
-  <si>
-    <t>https://images.hdqwalls.com/wallpapers/mafia-iii-definitive-edition-be.jpg</t>
-  </si>
-  <si>
-    <t>https://images.hdqwalls.com/wallpapers/call-of-duty-modern-warfare-remastered-lu.jpg</t>
-  </si>
-  <si>
-    <t>https://images.hdqwalls.com/wallpapers/call-of-duty-modern-warfare-2-campaign-remastered-4k-vw.jpg</t>
-  </si>
-  <si>
-    <t>https://images2.alphacoders.com/939/thumb-1920-939737.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wikia.nocookie.net/residentevil/images/1/11/About_bg_re3.jpg/revision/latest?cb=20210226115827&amp;path-prefix=ru</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/e7/31/51/e7315109ffc6599e2a5372fc95b24ba4.jpg</t>
-  </si>
-  <si>
-    <t>https://images7.alphacoders.com/330/thumb-1920-330535.jpg</t>
-  </si>
-  <si>
-    <t>https://images5.alphacoders.com/724/724192.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/TgAyj-mtDg4/maxresdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.mos.cms.futurecdn.net/G5sChiPXCGDC855Ao78HxR.jpg</t>
-  </si>
-  <si>
-    <t>https://ixbt.online/gametech/covers/2021/04/24/HwYAEJMXBGhA2sk1o8WipeuxPPDOsY38o2OUG5S6.jpg</t>
-  </si>
-  <si>
-    <t>https://wallpapercave.com/wp/6IyEN0s.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/ff/7d/d6/ff7dd6249fd6745653fc37a8d014aa01.jpg</t>
-  </si>
-  <si>
-    <t>https://images3.alphacoders.com/828/thumb-1920-828135.jpg</t>
-  </si>
-  <si>
-    <t>https://wallpaperaccess.com/full/653677.jpg</t>
-  </si>
-  <si>
-    <t>https://images7.alphacoders.com/800/thumb-1920-800857.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/b4/50/ca/b450ca40de0bd9849cbc0fdd67163883.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/31/01/f6/3101f69af8406ff979d8b4c1032badbe.jpg</t>
-  </si>
-  <si>
-    <t>https://wallpaperaccess.com/full/672018.jpg</t>
-  </si>
-  <si>
-    <t>https://images7.alphacoders.com/605/thumb-1920-605394.jpg</t>
-  </si>
-  <si>
-    <t>https://wallpaperaccess.com/full/1482238.jpg</t>
-  </si>
-  <si>
-    <t>https://wallpaperaccess.com/full/957573.jpg</t>
-  </si>
-  <si>
-    <t>https://ixbt.online/gametech/games/2021/02/01/bf5ygoPgEzF3GVVBMitRZdB1uIMxkeUM9qUWj7lG.jpg</t>
-  </si>
-  <si>
-    <t>https://images2.alphacoders.com/664/664487.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/0d/7f/44/0d7f44c79af0b05f2b8ae51cd812a04c.png</t>
-  </si>
-  <si>
-    <t>https://images.alphacoders.com/148/thumb-1920-148221.jpg</t>
-  </si>
-  <si>
-    <t>https://wallpaperaccess.com/full/3270333.jpg</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/28/36/33/2836330c4eb24377b5c4794669a2ec41.jpg</t>
-  </si>
-  <si>
-    <t>https://i.playground.ru/p/FcZcnV95D0IyFzSNuuLPnw.jpeg</t>
-  </si>
-  <si>
-    <t>Blizzard Entertainment, Blizzard North</t>
-  </si>
-  <si>
-    <t>Blizzard Entertainment, Vicarious Visions, Blizzard North</t>
-  </si>
-  <si>
-    <t>Blizzard Entertainment</t>
-  </si>
-  <si>
-    <t>Co-op, puzzle</t>
+    <t>shooters, legend</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>cop, pmr</t>
+  </si>
+  <si>
+    <t>Coldwood Interactive</t>
+  </si>
+  <si>
+    <t>DOOM 1</t>
+  </si>
+  <si>
+    <t>DOOM 2016</t>
+  </si>
+  <si>
+    <t>DOOM Eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+id Software</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Endnight Games Ltd</t>
+  </si>
+  <si>
+    <t>zombie, cop, shooter, horror</t>
+  </si>
+  <si>
+    <t>horror, zombie</t>
+  </si>
+  <si>
+    <t>https://s2.dmcdn.net/v/AuOrp1Ln4q7O8r4jO/x1080</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/zfZTVDNIGNU/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://sm.ign.com/ign_it/screenshot/default/doom-eternal-keyart-3-1920x1080_sxj1.jpg</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>Sekiro Shadows Die Twice</t>
+  </si>
+  <si>
+    <t>Beyond Two Souls</t>
+  </si>
+  <si>
+    <t>Detroit Become Human</t>
+  </si>
+  <si>
+    <t>Mafia Definitive Edition</t>
+  </si>
+  <si>
+    <t>Mafia 2 Definitive Edition</t>
+  </si>
+  <si>
+    <t>Mafia 3 Definitive Edition</t>
+  </si>
+  <si>
+    <t>The Dark Pictures Anthology Men of Medan</t>
+  </si>
+  <si>
+    <t>Windows 95/98/ME</t>
+  </si>
+  <si>
+    <t>Pentium III equivalent or greater</t>
+  </si>
+  <si>
+    <t>128 MB</t>
+  </si>
+  <si>
+    <t>3d Accelerated Card with 32 MB VRAM</t>
+  </si>
+  <si>
+    <t>400 MB</t>
+  </si>
+  <si>
+    <t>Pentium II 300 MHz</t>
+  </si>
+  <si>
+    <t>64 MB</t>
+  </si>
+  <si>
+    <t>Windows 98/ME/XP</t>
+  </si>
+  <si>
+    <t>Pentium III 450 MHz or equivalent</t>
+  </si>
+  <si>
+    <t>Video card with 12MB VRAM</t>
+  </si>
+  <si>
+    <t>800 MB</t>
+  </si>
+  <si>
+    <t>Pentium III 1GHz equivalent or greater</t>
+  </si>
+  <si>
+    <t>Video card with with 32MB VRAM</t>
+  </si>
+  <si>
+    <t>Video card with with 16MB VRAM</t>
+  </si>
+  <si>
+    <t>Windows® 2000/XP</t>
+  </si>
+  <si>
+    <t>Pentium 4 1.5Ghz or Athlon XP Equivalent</t>
+  </si>
+  <si>
+    <t>GeForce FX / Radeon 9500 or higher</t>
+  </si>
+  <si>
+    <t>5 GB</t>
+  </si>
+  <si>
+    <t>Pentium 4 2.4Ghz or Athlon XP/64-bit equivalent</t>
+  </si>
+  <si>
+    <t>ATI X800 series, Nvidia GeForce 6800 series or higher video card</t>
+  </si>
+  <si>
+    <t>Pentium III 800MHz</t>
+  </si>
+  <si>
+    <t>Windows Vista, 7</t>
+  </si>
+  <si>
+    <t>NVIDIA 8600 512 Mb RAM, or AMD equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Core i7 or AMD Athlon II X4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NVIDIA GeForce GTX 260 or ATI Radeon HD 5770</t>
+  </si>
+  <si>
+    <t>Windows 7 64-bit</t>
+  </si>
+  <si>
+    <t>Windows 7 64-bit, Windows 10 (64-bit)</t>
+  </si>
+  <si>
+    <t>Intel CPU Core i5-2500K 3.3GHz / AMD CPU Phenom II X4 940</t>
+  </si>
+  <si>
+    <t>Nvidia GPU GeForce GTX 770 / AMD GPU Radeon R9 290</t>
+  </si>
+  <si>
+    <t>Intel CPU Core i7 3770 3,4 GHz / AMD CPU AMD FX-8350 4 GHz</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 660 / Radeon HD 7870</t>
+  </si>
+  <si>
+    <t> Intel CPU Core i7 4790 4 GHz</t>
+  </si>
+  <si>
+    <t>Nvidia GPU GeForce GTX 1070 / AMD GPU Radeon RX Vega 56 8GB</t>
+  </si>
+  <si>
+    <t>True dual core CPU (Intel, AMD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1799,6 +1844,20 @@
     <font>
       <sz val="10"/>
       <name val="Open-sans"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFACB2B8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1890,7 +1949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1945,21 +2004,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2166,10 +2236,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W146"/>
+  <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2220,10 +2290,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.75">
@@ -2231,646 +2301,646 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2">
         <v>2003</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2">
         <v>2004</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.75">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2">
         <v>2005</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="12.75">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C5" s="2">
         <v>2006</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="12.75">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C6" s="2">
         <v>2007</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="12.75">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C7" s="2">
         <v>2009</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12.75">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2">
         <v>2010</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="12.75">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2">
         <v>2010</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="12.75">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2">
         <v>2011</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="12.75">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2">
         <v>2012</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C12" s="2">
         <v>2013</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="12.75">
       <c r="A13" s="2" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C13" s="2">
         <v>2015</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C14" s="2">
         <v>2017</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C15" s="2">
         <v>2019</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="12.75">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C16" s="1">
         <v>2000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="12.75">
@@ -2897,362 +2967,362 @@
     </row>
     <row r="18" spans="1:20" ht="12.75">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="C18" s="10">
         <v>2017</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="M18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="12.75">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="C19" s="10">
         <v>2019</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>517</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="J19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="12.75">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="C20" s="2">
         <v>2011</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>517</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="12.75">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="C21" s="2">
         <v>2014</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>517</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="12.75">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="C22" s="2">
         <v>2016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>517</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="12.75">
       <c r="A23" s="2" t="s">
-        <v>193</v>
+        <v>548</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="C23" s="2">
         <v>2019</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>517</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="L23" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12.75">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="C24" s="2">
         <v>2017</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="J24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="12.75">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C25" s="2">
         <v>2017</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>517</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
@@ -3279,272 +3349,272 @@
     </row>
     <row r="27" spans="1:20" ht="12.75">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C27" s="2">
         <v>2005</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="17" t="s">
+      <c r="I27" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="J27" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="12.75">
       <c r="A28" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C28" s="2">
         <v>2010</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>514</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="M28" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="12.75">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C29" s="2">
         <v>2013</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>138</v>
+        <v>514</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="M29" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="12.75">
       <c r="A30" s="2" t="s">
-        <v>152</v>
+        <v>550</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C30" s="2">
         <v>2019</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>138</v>
+        <v>514</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="12.75">
       <c r="A31" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="C31" s="2">
         <v>2015</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>138</v>
+        <v>514</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="12.75">
       <c r="A32" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C32" s="2">
         <v>2018</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>138</v>
+        <v>514</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
@@ -3571,408 +3641,390 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="C34" s="2">
         <v>2020</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>246</v>
+        <v>529</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>237</v>
+        <v>551</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C35" s="2">
         <v>2020</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="32" t="s">
-        <v>536</v>
-      </c>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>238</v>
+        <v>552</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C36" s="2">
         <v>2020</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="32" t="s">
-        <v>537</v>
-      </c>
+      <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>239</v>
+        <v>553</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C37" s="2">
         <v>2020</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="32" t="s">
-        <v>540</v>
-      </c>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="C38" s="2">
         <v>2016</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>246</v>
+        <v>529</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="32" t="s">
-        <v>541</v>
-      </c>
+      <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C39" s="2">
         <v>2020</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>246</v>
+        <v>529</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="32" t="s">
-        <v>542</v>
-      </c>
+      <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C40" s="2">
         <v>2019</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="32" t="s">
-        <v>543</v>
-      </c>
+      <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C41" s="2">
         <v>2018</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="32" t="s">
-        <v>544</v>
-      </c>
+      <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2">
         <v>2013</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="32" t="s">
-        <v>545</v>
-      </c>
+      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1">
       <c r="A43" s="23"/>
@@ -3997,138 +4049,120 @@
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2008</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
         <v>525</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="32" t="s">
-        <v>546</v>
-      </c>
+      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C45" s="2">
-        <v>2015</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
         <v>525</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="32" t="s">
-        <v>547</v>
-      </c>
+      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2018</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
         <v>525</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="32" t="s">
-        <v>548</v>
-      </c>
+      <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
       <c r="A47" s="23"/>
@@ -4153,191 +4187,339 @@
       <c r="T47" s="23"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="A48" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="36">
         <v>2000</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>94</v>
+      <c r="D48" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="A49" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="36">
         <v>2002</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>94</v>
+      <c r="D49" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="A50" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="36">
         <v>2004</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>94</v>
+      <c r="D50" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="A51" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="36">
         <v>2006</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>94</v>
+      <c r="D51" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="A52" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="36">
         <v>2012</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>94</v>
+      <c r="D52" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="A53" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="36">
         <v>2016</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>94</v>
+      <c r="D53" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="A54" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="36">
         <v>2018</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>94</v>
+      <c r="D54" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C55" s="1">
         <v>2020</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>257</v>
+        <v>515</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="J55" s="34"/>
       <c r="M55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>257</v>
+        <v>515</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>353</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J56" s="35"/>
       <c r="M56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>257</v>
+        <v>515</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>354</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="J57" s="34"/>
       <c r="M57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15.75" customHeight="1">
@@ -4365,389 +4547,386 @@
     </row>
     <row r="59" spans="1:21" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="C69" s="1">
         <v>2021</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C73" s="1">
         <v>2019</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>268</v>
+        <v>532</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15.75" customHeight="1">
       <c r="A84" s="29" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -4768,12 +4947,12 @@
     </row>
     <row r="85" spans="1:21" ht="15.75" customHeight="1">
       <c r="A85" s="29" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -4794,18 +4973,18 @@
     </row>
     <row r="86" spans="1:21" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="15.75" customHeight="1">
@@ -4833,629 +5012,552 @@
     </row>
     <row r="89" spans="1:21" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C89" s="1">
         <v>2019</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O89" s="33" t="s">
-        <v>558</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="C90" s="2">
         <v>2020</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" s="32" t="s">
-        <v>557</v>
-      </c>
+      <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:21" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O91" s="33" t="s">
-        <v>556</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O92" s="33" t="s">
-        <v>538</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O93" s="33" t="s">
-        <v>539</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O94" s="33" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A109" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A97" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A110" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O99" s="33" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C100" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O100" s="33" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O101" s="33" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O102" s="33" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O103" s="33" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O104" s="33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O105" s="33" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O106" s="33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O107" s="33" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A109" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A111" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O111" s="33" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="15.75" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O114" s="33" t="s">
-        <v>554</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O115" s="33" t="s">
-        <v>553</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C116" s="1">
-        <v>2015</v>
+        <v>488</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>552</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U119" s="29"/>
     </row>
     <row r="120" spans="1:23" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1996</v>
+        <v>324</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O120" s="33" t="s">
-        <v>549</v>
+        <v>92</v>
       </c>
       <c r="P120" s="29"/>
       <c r="Q120" s="29"/>
@@ -5468,28 +5570,19 @@
     </row>
     <row r="121" spans="1:23" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C121" s="1">
-        <v>2000</v>
+        <v>322</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O121" s="33" t="s">
-        <v>550</v>
+        <v>92</v>
       </c>
       <c r="P121" s="29"/>
       <c r="Q121" s="29"/>
@@ -5502,28 +5595,19 @@
     </row>
     <row r="122" spans="1:23" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C122" s="1">
-        <v>2012</v>
+        <v>323</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>314</v>
+        <v>512</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O122" s="33" t="s">
-        <v>551</v>
+        <v>92</v>
       </c>
       <c r="P122" s="29"/>
       <c r="Q122" s="29"/>
@@ -5561,22 +5645,22 @@
     </row>
     <row r="124" spans="1:23" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P124" s="29"/>
       <c r="Q124" s="29"/>
@@ -5589,22 +5673,22 @@
     </row>
     <row r="125" spans="1:23" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P125" s="29"/>
       <c r="Q125" s="29"/>
@@ -5617,22 +5701,22 @@
     </row>
     <row r="126" spans="1:23" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P126" s="29"/>
       <c r="Q126" s="29"/>
@@ -5645,25 +5729,25 @@
     </row>
     <row r="127" spans="1:23" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C127" s="1">
         <v>2007</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P127" s="29"/>
       <c r="Q127" s="29"/>
@@ -5676,25 +5760,25 @@
     </row>
     <row r="128" spans="1:23" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C128" s="1">
         <v>2008</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P128" s="29"/>
       <c r="Q128" s="29"/>
@@ -5707,25 +5791,25 @@
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C129" s="1">
         <v>2010</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P129" s="29"/>
       <c r="Q129" s="29"/>
@@ -5738,19 +5822,19 @@
     </row>
     <row r="130" spans="1:23" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P130" s="29"/>
       <c r="Q130" s="29"/>
@@ -5763,19 +5847,19 @@
     </row>
     <row r="131" spans="1:23" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P131" s="30"/>
       <c r="Q131" s="29"/>
@@ -5813,43 +5897,43 @@
     </row>
     <row r="133" spans="1:23" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C133" s="2">
         <v>2019</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -5864,43 +5948,43 @@
     </row>
     <row r="134" spans="1:23" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="C134" s="2">
         <v>2020</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="20"/>
@@ -5915,43 +5999,43 @@
     </row>
     <row r="135" spans="1:23" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C135" s="2">
         <v>2007</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -5991,39 +6075,41 @@
     </row>
     <row r="137" spans="1:23" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B137" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>468</v>
+      </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -6038,39 +6124,41 @@
     </row>
     <row r="138" spans="1:23" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -6085,39 +6173,41 @@
     </row>
     <row r="139" spans="1:23" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B139" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -6132,43 +6222,43 @@
     </row>
     <row r="140" spans="1:23" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="C140" s="2">
         <v>2021</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -6208,43 +6298,43 @@
     </row>
     <row r="142" spans="1:23" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C142" s="2">
         <v>2007</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>328</v>
+        <v>522</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -6259,43 +6349,43 @@
     </row>
     <row r="143" spans="1:23" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C143" s="2">
         <v>2011</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J143" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M143" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L143" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="20"/>
@@ -6321,89 +6411,243 @@
     </row>
     <row r="145" spans="1:15" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C145" s="2">
         <v>2011</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="20"/>
     </row>
     <row r="146" spans="1:15" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C146" s="2">
         <v>2011</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="I146" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="20"/>
+    </row>
+    <row r="147" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A148" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1993</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O155" s="33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O156" s="33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O157" s="33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A160" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6436,40 +6680,11 @@
     <hyperlink ref="O29" r:id="rId27"/>
     <hyperlink ref="O31" r:id="rId28"/>
     <hyperlink ref="O32" r:id="rId29"/>
-    <hyperlink ref="O36" r:id="rId30"/>
-    <hyperlink ref="O35" r:id="rId31"/>
-    <hyperlink ref="O92" r:id="rId32"/>
-    <hyperlink ref="O93" r:id="rId33"/>
-    <hyperlink ref="O37" r:id="rId34"/>
-    <hyperlink ref="O38" r:id="rId35"/>
-    <hyperlink ref="O39" r:id="rId36"/>
-    <hyperlink ref="O40" r:id="rId37"/>
-    <hyperlink ref="O41" r:id="rId38"/>
-    <hyperlink ref="O42" r:id="rId39"/>
-    <hyperlink ref="O44" r:id="rId40"/>
-    <hyperlink ref="O45" r:id="rId41"/>
-    <hyperlink ref="O46" r:id="rId42"/>
-    <hyperlink ref="O120" r:id="rId43"/>
-    <hyperlink ref="O121" r:id="rId44"/>
-    <hyperlink ref="O122" r:id="rId45"/>
-    <hyperlink ref="O115" r:id="rId46"/>
-    <hyperlink ref="O114" r:id="rId47"/>
-    <hyperlink ref="O111" r:id="rId48"/>
-    <hyperlink ref="O91" r:id="rId49"/>
-    <hyperlink ref="O90" r:id="rId50"/>
-    <hyperlink ref="O89" r:id="rId51"/>
-    <hyperlink ref="O94" r:id="rId52"/>
-    <hyperlink ref="O99" r:id="rId53"/>
-    <hyperlink ref="O100" r:id="rId54"/>
-    <hyperlink ref="O105" r:id="rId55"/>
-    <hyperlink ref="O104" r:id="rId56"/>
-    <hyperlink ref="O103" r:id="rId57"/>
-    <hyperlink ref="O102" r:id="rId58"/>
-    <hyperlink ref="O101" r:id="rId59"/>
-    <hyperlink ref="O106" r:id="rId60"/>
-    <hyperlink ref="O107" r:id="rId61"/>
+    <hyperlink ref="O155" r:id="rId30"/>
+    <hyperlink ref="O156" r:id="rId31"/>
+    <hyperlink ref="O157" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="650">
   <si>
     <t>Name</t>
   </si>
@@ -998,15 +998,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nvidia GeForce 400 Series/AMD Radeon HD 7000 series </t>
-  </si>
-  <si>
-    <t>85 GB</t>
-  </si>
-  <si>
-    <t>84 GB</t>
-  </si>
-  <si>
-    <t>83 GB</t>
   </si>
   <si>
     <t>81 GB</t>
@@ -1636,10 +1627,6 @@
     <t>DOOM Eternal</t>
   </si>
   <si>
-    <t xml:space="preserve">
-id Software</t>
-  </si>
-  <si>
     <t>hz</t>
   </si>
   <si>
@@ -1728,9 +1715,6 @@
     <t>Video card with with 16MB VRAM</t>
   </si>
   <si>
-    <t>Windows® 2000/XP</t>
-  </si>
-  <si>
     <t>Pentium 4 1.5Ghz or Athlon XP Equivalent</t>
   </si>
   <si>
@@ -1786,13 +1770,211 @@
   </si>
   <si>
     <t>True dual core CPU (Intel, AMD)</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i5-2500 @3.3 GHz / AMD FX-8320 @3.5 GHz</t>
+  </si>
+  <si>
+    <t>NVIDIA® GeForce® GTX 560 / AMD Radeon™ HD 6870 (1GB VRAM)</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i5-4670K @3.4 GHz / AMD FX-8350 @4.0 GHz</t>
+  </si>
+  <si>
+    <t>NVIDIA® GeForce® GTX 780 / AMD Radeon™ R9 290 (2GB VRAM)</t>
+  </si>
+  <si>
+    <t>Windows XP 64-bit</t>
+  </si>
+  <si>
+    <t>512 MB NVIDIA GeForce 9800GTX / ATI Radeon HD 3xxx series</t>
+  </si>
+  <si>
+    <t> 2.2 GHz Dual Core CPU</t>
+  </si>
+  <si>
+    <t>2.8 GHz Quad Core CPU</t>
+  </si>
+  <si>
+    <t>1GB NVIDIA GTX 460 / ATI Radeon HD 6850 or better</t>
+  </si>
+  <si>
+    <t> 3.0 GHz dual core or better</t>
+  </si>
+  <si>
+    <t>9 GB</t>
+  </si>
+  <si>
+    <t> 2.4 GHz quad core or better </t>
+  </si>
+  <si>
+    <t>4 GB </t>
+  </si>
+  <si>
+    <t>Arkane Studios</t>
+  </si>
+  <si>
+    <t>Dishonored - Definitive Edition</t>
+  </si>
+  <si>
+    <t>re, stels</t>
+  </si>
+  <si>
+    <t>3.0 GHz dual core or better</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 460 / ATI Radeon HD 5850 512 MB</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 460 / ATI Radeon HD 5850 768 MB</t>
+  </si>
+  <si>
+    <t>Windows 2000/XP</t>
+  </si>
+  <si>
+    <t>Intel Core i5-2400/AMD FX-8320 or better</t>
+  </si>
+  <si>
+    <t>NVIDIA GTX 660 2GB/AMD Radeon HD 7970 3GB or better</t>
+  </si>
+  <si>
+    <t> 60 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 GB </t>
+  </si>
+  <si>
+    <t>NVIDIA GTX 1060 6GB/AMD Radeon RX 480 8GB or better</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4770/AMD FX-8350 or better</t>
+  </si>
+  <si>
+    <t>Будь який</t>
+  </si>
+  <si>
+    <t>Будь яка</t>
+  </si>
+  <si>
+    <t>100 MB</t>
+  </si>
+  <si>
+    <t>https://gameactu.eu/wp-content/uploads/2020/09/Crysis%C2%AE-Remastered_20200923175726-scaled.jpg</t>
+  </si>
+  <si>
+    <t>Crysis 2 remastered</t>
+  </si>
+  <si>
+    <t>Crysis 3 remastered</t>
+  </si>
+  <si>
+    <t>54 GB</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1060</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-3470</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-8600 or higher</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1660 TI</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8600</t>
+  </si>
+  <si>
+    <t> Intel Core i5-3470</t>
+  </si>
+  <si>
+    <t>https://cdn1.epicgames.com/salesEvent/salesEvent/EGS_Crysis2Remastered_Crytek_S1_2560x1440-fd507ed73e95770a3fe990ee78e3012f</t>
+  </si>
+  <si>
+    <t>http://s01.riotpixels.net/data/3c/8d/3c8ddfd1-344b-461e-8e0f-e9a296bf0046.jpg/artwork.crysis-3-remastered.3840x2160.2021-10-15.8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn2.unrealengine.com/Diesel%2Fproductv2%2Fmafia-definitive-edition%2Fhome%2FEGS_MafiaDefinitiveEditionPreOrder_Hangar13_G1A_00-1920x1080-e7457132d8ebeb06c2d663944087c683e4834918.jpg</t>
+  </si>
+  <si>
+    <t>https://greatgamer.ru/images/games_cover/cover_34786.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn2.unrealengine.com/Diesel%2Fproductv2%2Fmafia-iii-definitive-edition%2Fhome%2FEGS_MafiaIIIDefinitiveEdition_Hangar13_G1A_00-1920x1080-6513f27c3b9eff7c623e492e84f361fc52213360.jpg</t>
+  </si>
+  <si>
+    <t>http://i2.hdslb.com/bfs/archive/12f129c5f97811a37e8a64d62b229fd6b98813c0.jpg</t>
+  </si>
+  <si>
+    <t>https://imgs.callofduty.com/content/dam/atvi/callofduty/cod-touchui/mw2-remastered/common/mw2cr-social-share-image.jpg</t>
+  </si>
+  <si>
+    <t>https://sm.ign.com/ign_ru/screenshot/default/call-of-dutyr-modern-warfarer-obnovlennaia-versiia-201611131_h1dt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/jPixI7df_-Q/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn-ext.fanatical.com/production/product/1280x720/3826e8c8-9529-4928-a78c-99b85c756e35.jpeg</t>
+  </si>
+  <si>
+    <t>https://image.api.playstation.com/vulcan/img/rnd/202011/0204/an2D6Z90tsMk8TLHYCcMvbqc.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn1.epicgames.com/salesEvent/salesEvent/EGS_DishonoredDefinitiveEdition_ArkaneStudios_S3_2560x1440-172cba030b0261550b46b6c1224330bf</t>
+  </si>
+  <si>
+    <t>https://cdn-ext.fanatical.com/production/product/1280x720/c3727134-01e4-4c43-adf3-b8c7e344b455.jpeg</t>
+  </si>
+  <si>
+    <t>https://cdn1.epicgames.com/salesEvent/salesEvent/EGS_RiseoftheTombRaider20YearCelebration_CrystalDynamics_S1_2560x1440-3bd5b3c4c11d46cc2dcb06bdf2f77627</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/TgAyj-mtDg4/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://images4.alphacoders.com/602/thumb-1920-602022.jpg</t>
+  </si>
+  <si>
+    <t>https://images7.alphacoders.com/721/thumb-1920-721690.jpg</t>
+  </si>
+  <si>
+    <t>https://images8.alphacoders.com/683/thumb-1920-683187.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/361975.jpg</t>
+  </si>
+  <si>
+    <t>https://images2.alphacoders.com/612/thumb-1920-612606.jpg</t>
+  </si>
+  <si>
+    <t>https://images2.alphacoders.com/676/thumb-1920-676622.jpg</t>
+  </si>
+  <si>
+    <t>https://images5.alphacoders.com/930/thumb-1920-930953.jpg</t>
+  </si>
+  <si>
+    <t>https://wallpapernoon.com/wp/full/hitman_3_wallpapers_138_78bc8.png</t>
+  </si>
+  <si>
+    <t>https://www.wallpaperup.com/uploads/wallpapers/2016/11/22/1051564/47b9ef29a2e06fef63abacf8974ebcf8-700.jpg</t>
+  </si>
+  <si>
+    <t>https://images8.alphacoders.com/710/thumb-1920-710284.png</t>
+  </si>
+  <si>
+    <t>God of war</t>
+  </si>
+  <si>
+    <t>id Software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1853,11 +2035,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF61686D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1886,7 +2080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1931,25 +2125,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1998,9 +2179,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2008,18 +2186,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2236,10 +2431,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W160"/>
+  <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2307,7 +2502,7 @@
         <v>2003</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -2352,7 +2547,7 @@
         <v>2004</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2397,7 +2592,7 @@
         <v>2005</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -2442,7 +2637,7 @@
         <v>2006</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>33</v>
@@ -2487,7 +2682,7 @@
         <v>2007</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -2532,7 +2727,7 @@
         <v>2009</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -2577,7 +2772,7 @@
         <v>2010</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>58</v>
@@ -2622,7 +2817,7 @@
         <v>2010</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>196</v>
@@ -2667,7 +2862,7 @@
         <v>2011</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>156</v>
@@ -2712,7 +2907,7 @@
         <v>2012</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>58</v>
@@ -2757,7 +2952,7 @@
         <v>2013</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>207</v>
@@ -2793,7 +2988,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.75">
       <c r="A13" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>217</v>
@@ -2802,7 +2997,7 @@
         <v>2015</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>57</v>
@@ -2847,7 +3042,7 @@
         <v>2017</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>57</v>
@@ -2892,31 +3087,31 @@
         <v>2019</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>89</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>134</v>
@@ -2937,7 +3132,7 @@
         <v>2000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>182</v>
@@ -2970,13 +3165,13 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C18" s="10">
         <v>2017</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>84</v>
@@ -3015,13 +3210,13 @@
         <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C19" s="10">
         <v>2019</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>84</v>
@@ -3060,13 +3255,13 @@
         <v>99</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C20" s="2">
         <v>2011</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>41</v>
@@ -3105,13 +3300,13 @@
         <v>104</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C21" s="2">
         <v>2014</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>58</v>
@@ -3150,13 +3345,13 @@
         <v>109</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C22" s="2">
         <v>2016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>84</v>
@@ -3192,16 +3387,16 @@
     </row>
     <row r="23" spans="1:20" ht="12.75">
       <c r="A23" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C23" s="2">
         <v>2019</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>65</v>
@@ -3240,13 +3435,13 @@
         <v>121</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C24" s="2">
         <v>2017</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -3285,13 +3480,13 @@
         <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C25" s="2">
         <v>2017</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
@@ -3352,13 +3547,13 @@
         <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C27" s="2">
         <v>2005</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>28</v>
@@ -3397,13 +3592,13 @@
         <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C28" s="2">
         <v>2010</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -3439,16 +3634,16 @@
     </row>
     <row r="29" spans="1:20" ht="12.75">
       <c r="A29" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C29" s="2">
         <v>2013</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>65</v>
@@ -3484,16 +3679,16 @@
     </row>
     <row r="30" spans="1:20" ht="12.75">
       <c r="A30" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C30" s="2">
         <v>2019</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>84</v>
@@ -3532,13 +3727,13 @@
         <v>154</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C31" s="2">
         <v>2015</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>58</v>
@@ -3577,13 +3772,13 @@
         <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C32" s="2">
         <v>2018</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>65</v>
@@ -3644,22 +3839,22 @@
         <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C34" s="2">
         <v>2020</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>92</v>
@@ -3671,937 +3866,1132 @@
         <v>152</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C35" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>433</v>
+        <v>618</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>432</v>
+        <v>617</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>359</v>
+        <v>616</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>434</v>
+        <v>619</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>435</v>
+        <v>620</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C36" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>359</v>
+        <v>448</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>435</v>
+        <v>89</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>620</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C37" s="2">
         <v>2020</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>442</v>
+        <v>548</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="C38" s="2">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>233</v>
+        <v>549</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C39" s="2">
         <v>2020</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>443</v>
+        <v>232</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="C40" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C41" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A43" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="36">
+        <v>2018</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A44" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B44" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" s="36">
         <v>2013</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D44" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E44" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F44" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="M44" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="N44" s="36"/>
+      <c r="O44" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A45" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="C45" s="36">
+        <v>2013</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>599</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="K45" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q45" s="23"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="23"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A47" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="E47" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F47" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H44" s="13" t="s">
+      <c r="L47" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
+      <c r="M47" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="36">
-        <v>2000</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="36" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>561</v>
+        <v>57</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>560</v>
+        <v>477</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>564</v>
+        <v>478</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>555</v>
+        <v>117</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>559</v>
+        <v>118</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>557</v>
+        <v>84</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>556</v>
+        <v>488</v>
       </c>
       <c r="L48" s="36" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>555</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q49" s="23"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="23"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A51" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="41">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="J51" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="L51" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="M51" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A52" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B52" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C52" s="41">
         <v>2002</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="D52" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="J52" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="L52" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="M52" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A53" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="41">
+        <v>2004</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="L53" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="M53" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A54" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="41">
+        <v>2006</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="J54" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="42" t="s">
         <v>568</v>
       </c>
-      <c r="H49" s="36" t="s">
-        <v>562</v>
-      </c>
-      <c r="I49" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="L49" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="M49" s="36" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A50" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="36" t="s">
+      <c r="L54" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="M54" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A55" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="36">
-        <v>2004</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="36" t="s">
+      <c r="C55" s="41">
+        <v>2012</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="M55" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="G50" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>562</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K50" s="36" t="s">
+      <c r="N55" s="36"/>
+      <c r="O55" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A56" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="41">
+        <v>2016</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="L50" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="M50" s="36" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A51" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" s="36" t="s">
+      <c r="I56" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J56" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="L56" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="M56" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A57" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="36">
-        <v>2006</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>571</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="L51" s="36" t="s">
-        <v>574</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A52" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" s="36">
+      <c r="C57" s="41">
+        <v>2018</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>575</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="L57" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="M57" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A58" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="36">
+        <v>2020</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A59" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="C59" s="36">
         <v>2012</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="I52" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="L52" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="M52" s="36" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A53" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="36">
-        <v>2016</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E53" s="36" t="s">
+      <c r="D59" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="M59" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A60" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="E60" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="I53" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="J53" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K53" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="M53" s="36" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A54" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36">
-        <v>2018</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E54" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="I54" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="J54" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="M54" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J55" s="34"/>
-      <c r="M55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J56" s="35"/>
-      <c r="M56" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J57" s="34"/>
-      <c r="M57" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F60" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>575</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="J60" s="44" t="s">
+        <v>607</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>609</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q60" s="23"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>470</v>
+        <v>257</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>92</v>
@@ -4609,13 +4999,13 @@
     </row>
     <row r="63" spans="1:21" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>92</v>
@@ -4623,255 +5013,264 @@
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>471</v>
+        <v>260</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>470</v>
+        <v>262</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1">
+    <row r="67" spans="1:15" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>470</v>
+        <v>261</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1">
+    <row r="68" spans="1:15" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2021</v>
+        <v>467</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1">
+    <row r="70" spans="1:15" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>230</v>
+        <v>265</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1">
+    <row r="71" spans="1:15" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>264</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1">
+    <row r="72" spans="1:15" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>240</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2021</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1">
+    <row r="73" spans="1:15" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2019</v>
+        <v>230</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O73" s="32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1">
+    <row r="75" spans="1:15" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1">
+    <row r="76" spans="1:15" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2019</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1">
+    <row r="77" spans="1:15" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1">
+    <row r="78" spans="1:15" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>532</v>
+        <v>256</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1">
+    <row r="79" spans="1:15" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>92</v>
@@ -4879,13 +5278,13 @@
     </row>
     <row r="81" spans="1:21" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>92</v>
@@ -4893,13 +5292,13 @@
     </row>
     <row r="82" spans="1:21" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>92</v>
@@ -4907,229 +5306,223 @@
     </row>
     <row r="83" spans="1:21" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A84" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
+      <c r="A84" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="D84" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="85" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A85" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
+      <c r="A85" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="D85" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
+        <v>256</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="28"/>
     </row>
     <row r="86" spans="1:21" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>498</v>
+        <v>300</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="I86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
     </row>
     <row r="87" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="A87" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
     </row>
     <row r="88" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="23"/>
-      <c r="R88" s="23"/>
-      <c r="S88" s="23"/>
-      <c r="T88" s="23"/>
-      <c r="U88" s="23"/>
+      <c r="A88" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
     </row>
     <row r="89" spans="1:21" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2019</v>
+        <v>495</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="23"/>
     </row>
     <row r="90" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C90" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L90" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+      <c r="D90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q90" s="23"/>
     </row>
     <row r="91" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
     </row>
     <row r="92" spans="1:21" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>291</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2019</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A93" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
     </row>
     <row r="94" spans="1:21" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>92</v>
@@ -5137,16 +5530,13 @@
     </row>
     <row r="95" spans="1:21" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>92</v>
@@ -5154,16 +5544,16 @@
     </row>
     <row r="96" spans="1:21" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>277</v>
+        <v>420</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>92</v>
@@ -5171,16 +5561,16 @@
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>92</v>
@@ -5188,16 +5578,16 @@
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>362</v>
+        <v>146</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>92</v>
@@ -5205,16 +5595,16 @@
     </row>
     <row r="99" spans="1:13" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>92</v>
@@ -5222,16 +5612,16 @@
     </row>
     <row r="100" spans="1:13" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>92</v>
@@ -5239,13 +5629,16 @@
     </row>
     <row r="101" spans="1:13" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>92</v>
@@ -5253,13 +5646,16 @@
     </row>
     <row r="102" spans="1:13" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>92</v>
@@ -5267,13 +5663,16 @@
     </row>
     <row r="103" spans="1:13" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>92</v>
@@ -5281,13 +5680,13 @@
     </row>
     <row r="104" spans="1:13" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>92</v>
@@ -5295,13 +5694,13 @@
     </row>
     <row r="105" spans="1:13" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>92</v>
@@ -5309,13 +5708,13 @@
     </row>
     <row r="106" spans="1:13" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>92</v>
@@ -5323,13 +5722,13 @@
     </row>
     <row r="107" spans="1:13" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>370</v>
+        <v>161</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>92</v>
@@ -5337,16 +5736,13 @@
     </row>
     <row r="108" spans="1:13" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>92</v>
@@ -5354,16 +5750,13 @@
     </row>
     <row r="109" spans="1:13" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>143</v>
+        <v>366</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>92</v>
@@ -5371,16 +5764,13 @@
     </row>
     <row r="110" spans="1:13" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>92</v>
@@ -5388,13 +5778,16 @@
     </row>
     <row r="111" spans="1:13" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>92</v>
@@ -5402,13 +5795,16 @@
     </row>
     <row r="112" spans="1:13" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>374</v>
+        <v>143</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>92</v>
@@ -5416,16 +5812,16 @@
     </row>
     <row r="113" spans="1:23" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>65</v>
+        <v>369</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>92</v>
@@ -5433,19 +5829,13 @@
     </row>
     <row r="114" spans="1:23" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>488</v>
+        <v>297</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>92</v>
@@ -5453,19 +5843,13 @@
     </row>
     <row r="115" spans="1:23" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>488</v>
+        <v>306</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>65</v>
+        <v>371</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>92</v>
@@ -5473,16 +5857,13 @@
     </row>
     <row r="116" spans="1:23" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>488</v>
+        <v>307</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>65</v>
@@ -5493,13 +5874,16 @@
     </row>
     <row r="117" spans="1:23" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>65</v>
@@ -5510,13 +5894,16 @@
     </row>
     <row r="118" spans="1:23" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>65</v>
@@ -5527,13 +5914,16 @@
     </row>
     <row r="119" spans="1:23" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>65</v>
@@ -5541,17 +5931,16 @@
       <c r="M119" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U119" s="29"/>
     </row>
     <row r="120" spans="1:23" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>65</v>
@@ -5559,24 +5948,18 @@
       <c r="M120" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="29"/>
-      <c r="U120" s="29"/>
-      <c r="V120" s="29"/>
-      <c r="W120" s="29"/>
+      <c r="U120" s="28"/>
+      <c r="W120" s="28"/>
     </row>
     <row r="121" spans="1:23" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>65</v>
@@ -5584,24 +5967,22 @@
       <c r="M121" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P121" s="29"/>
-      <c r="Q121" s="29"/>
-      <c r="R121" s="29"/>
-      <c r="S121" s="29"/>
-      <c r="T121" s="29"/>
-      <c r="U121" s="29"/>
-      <c r="V121" s="29"/>
-      <c r="W121" s="29"/>
+      <c r="R121" s="28"/>
+      <c r="S121" s="28"/>
+      <c r="T121" s="28"/>
+      <c r="U121" s="28"/>
+      <c r="V121" s="28"/>
+      <c r="W121" s="28"/>
     </row>
     <row r="122" spans="1:23" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>65</v>
@@ -5609,52 +5990,48 @@
       <c r="M122" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P122" s="29"/>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="29"/>
-      <c r="S122" s="29"/>
-      <c r="T122" s="29"/>
-      <c r="U122" s="29"/>
-      <c r="V122" s="29"/>
-      <c r="W122" s="29"/>
+      <c r="Q122" s="28"/>
+      <c r="R122" s="28"/>
+      <c r="S122" s="28"/>
+      <c r="T122" s="28"/>
+      <c r="U122" s="28"/>
+      <c r="V122" s="28"/>
+      <c r="W122" s="28"/>
     </row>
     <row r="123" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="23"/>
-      <c r="N123" s="23"/>
-      <c r="O123" s="23"/>
-      <c r="P123" s="29"/>
-      <c r="Q123" s="29"/>
-      <c r="R123" s="29"/>
-      <c r="S123" s="29"/>
-      <c r="T123" s="29"/>
-      <c r="U123" s="29"/>
-      <c r="V123" s="29"/>
-      <c r="W123" s="29"/>
+      <c r="A123" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P123" s="28"/>
+      <c r="Q123" s="28"/>
+      <c r="R123" s="28"/>
+      <c r="S123" s="28"/>
+      <c r="T123" s="28"/>
+      <c r="U123" s="28"/>
+      <c r="V123" s="28"/>
+      <c r="W123" s="28"/>
     </row>
     <row r="124" spans="1:23" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>65</v>
@@ -5662,27 +6039,24 @@
       <c r="M124" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P124" s="29"/>
-      <c r="Q124" s="29"/>
-      <c r="R124" s="29"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="29"/>
-      <c r="U124" s="29"/>
-      <c r="V124" s="29"/>
-      <c r="W124" s="29"/>
+      <c r="P124" s="28"/>
+      <c r="Q124" s="28"/>
+      <c r="R124" s="28"/>
+      <c r="S124" s="28"/>
+      <c r="T124" s="28"/>
+      <c r="U124" s="28"/>
+      <c r="V124" s="28"/>
+      <c r="W124" s="28"/>
     </row>
     <row r="125" spans="1:23" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>65</v>
@@ -5690,58 +6064,52 @@
       <c r="M125" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="29"/>
-      <c r="R125" s="29"/>
-      <c r="S125" s="29"/>
-      <c r="T125" s="29"/>
-      <c r="U125" s="29"/>
-      <c r="V125" s="29"/>
-      <c r="W125" s="29"/>
+      <c r="P125" s="28"/>
+      <c r="Q125" s="28"/>
+      <c r="R125" s="28"/>
+      <c r="S125" s="28"/>
+      <c r="T125" s="28"/>
+      <c r="U125" s="28"/>
+      <c r="V125" s="28"/>
+      <c r="W125" s="28"/>
     </row>
     <row r="126" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P126" s="29"/>
-      <c r="Q126" s="29"/>
-      <c r="R126" s="29"/>
-      <c r="S126" s="29"/>
-      <c r="T126" s="29"/>
-      <c r="U126" s="29"/>
-      <c r="V126" s="29"/>
-      <c r="W126" s="29"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="23"/>
+      <c r="N126" s="23"/>
+      <c r="O126" s="23"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="28"/>
+      <c r="R126" s="28"/>
+      <c r="S126" s="28"/>
+      <c r="T126" s="28"/>
+      <c r="U126" s="28"/>
+      <c r="V126" s="28"/>
+      <c r="W126" s="28"/>
     </row>
     <row r="127" spans="1:23" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2007</v>
+        <v>325</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>384</v>
+        <v>96</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>65</v>
@@ -5749,30 +6117,27 @@
       <c r="M127" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P127" s="29"/>
-      <c r="Q127" s="29"/>
-      <c r="R127" s="29"/>
-      <c r="S127" s="29"/>
-      <c r="T127" s="29"/>
-      <c r="U127" s="29"/>
-      <c r="V127" s="29"/>
-      <c r="W127" s="29"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="28"/>
+      <c r="R127" s="28"/>
+      <c r="S127" s="28"/>
+      <c r="T127" s="28"/>
+      <c r="U127" s="28"/>
+      <c r="V127" s="28"/>
+      <c r="W127" s="28"/>
     </row>
     <row r="128" spans="1:23" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2008</v>
+        <v>325</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>89</v>
+        <v>380</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>65</v>
@@ -5780,30 +6145,27 @@
       <c r="M128" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P128" s="29"/>
-      <c r="Q128" s="29"/>
-      <c r="R128" s="29"/>
-      <c r="S128" s="29"/>
-      <c r="T128" s="29"/>
-      <c r="U128" s="29"/>
-      <c r="V128" s="29"/>
-      <c r="W128" s="29"/>
+      <c r="P128" s="28"/>
+      <c r="Q128" s="28"/>
+      <c r="R128" s="28"/>
+      <c r="S128" s="28"/>
+      <c r="T128" s="28"/>
+      <c r="U128" s="28"/>
+      <c r="V128" s="28"/>
+      <c r="W128" s="28"/>
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2010</v>
+        <v>325</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>65</v>
@@ -5811,24 +6173,30 @@
       <c r="M129" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P129" s="29"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="29"/>
-      <c r="S129" s="29"/>
-      <c r="T129" s="29"/>
-      <c r="U129" s="29"/>
-      <c r="V129" s="29"/>
-      <c r="W129" s="29"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="28"/>
+      <c r="R129" s="28"/>
+      <c r="S129" s="28"/>
+      <c r="T129" s="28"/>
+      <c r="U129" s="28"/>
+      <c r="V129" s="28"/>
+      <c r="W129" s="28"/>
     </row>
     <row r="130" spans="1:23" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2007</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>65</v>
@@ -5836,24 +6204,30 @@
       <c r="M130" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P130" s="29"/>
-      <c r="Q130" s="29"/>
-      <c r="R130" s="29"/>
-      <c r="S130" s="29"/>
-      <c r="T130" s="29"/>
-      <c r="U130" s="29"/>
-      <c r="V130" s="29"/>
-      <c r="W130" s="29"/>
+      <c r="P130" s="28"/>
+      <c r="Q130" s="28"/>
+      <c r="R130" s="28"/>
+      <c r="S130" s="28"/>
+      <c r="T130" s="28"/>
+      <c r="U130" s="28"/>
+      <c r="V130" s="28"/>
+      <c r="W130" s="28"/>
     </row>
     <row r="131" spans="1:23" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2008</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>386</v>
+        <v>89</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>65</v>
@@ -5861,792 +6235,959 @@
       <c r="M131" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P131" s="30"/>
-      <c r="Q131" s="29"/>
-      <c r="R131" s="29"/>
-      <c r="S131" s="29"/>
-      <c r="T131" s="29"/>
-      <c r="U131" s="29"/>
-      <c r="V131" s="29"/>
-      <c r="W131" s="29"/>
+      <c r="P131" s="28"/>
+      <c r="Q131" s="28"/>
+      <c r="R131" s="28"/>
+      <c r="S131" s="28"/>
+      <c r="T131" s="28"/>
+      <c r="U131" s="28"/>
+      <c r="V131" s="28"/>
+      <c r="W131" s="28"/>
     </row>
     <row r="132" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23"/>
-      <c r="M132" s="23"/>
-      <c r="N132" s="23"/>
-      <c r="O132" s="23"/>
-      <c r="P132" s="31"/>
-      <c r="Q132" s="29"/>
-      <c r="R132" s="29"/>
-      <c r="S132" s="29"/>
-      <c r="T132" s="29"/>
-      <c r="U132" s="29"/>
-      <c r="V132" s="29"/>
-      <c r="W132" s="29"/>
+      <c r="A132" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P132" s="28"/>
+      <c r="Q132" s="28"/>
+      <c r="R132" s="28"/>
+      <c r="S132" s="28"/>
+      <c r="T132" s="28"/>
+      <c r="U132" s="28"/>
+      <c r="V132" s="28"/>
+      <c r="W132" s="28"/>
     </row>
     <row r="133" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="28"/>
+      <c r="S133" s="28"/>
+      <c r="T133" s="28"/>
+      <c r="U133" s="28"/>
+      <c r="V133" s="28"/>
+      <c r="W133" s="28"/>
+    </row>
+    <row r="134" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P134" s="29"/>
+      <c r="Q134" s="28"/>
+      <c r="R134" s="28"/>
+      <c r="S134" s="28"/>
+      <c r="T134" s="28"/>
+      <c r="U134" s="28"/>
+      <c r="V134" s="28"/>
+      <c r="W134" s="28"/>
+    </row>
+    <row r="135" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+      <c r="N135" s="23"/>
+      <c r="O135" s="23"/>
+      <c r="P135" s="30"/>
+      <c r="Q135" s="28"/>
+      <c r="R135" s="28"/>
+      <c r="S135" s="28"/>
+      <c r="T135" s="28"/>
+      <c r="U135" s="28"/>
+      <c r="V135" s="28"/>
+      <c r="W135" s="28"/>
+    </row>
+    <row r="136" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B133" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C133" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="H136" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J136" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="31"/>
-      <c r="Q133" s="29"/>
-      <c r="R133" s="29"/>
-      <c r="S133" s="29"/>
-      <c r="T133" s="29"/>
-      <c r="U133" s="29"/>
-      <c r="V133" s="29"/>
-      <c r="W133" s="29"/>
-    </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A134" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C134" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="20"/>
-      <c r="P134" s="30"/>
-      <c r="Q134" s="29"/>
-      <c r="R134" s="29"/>
-      <c r="S134" s="29"/>
-      <c r="T134" s="29"/>
-      <c r="U134" s="29"/>
-      <c r="V134" s="29"/>
-      <c r="W134" s="29"/>
-    </row>
-    <row r="135" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A135" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="C135" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="31"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="29"/>
-      <c r="U135" s="29"/>
-      <c r="V135" s="29"/>
-      <c r="W135" s="29"/>
-    </row>
-    <row r="136" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="23"/>
-      <c r="M136" s="23"/>
-      <c r="N136" s="23"/>
-      <c r="O136" s="24"/>
-      <c r="P136" s="31"/>
-      <c r="Q136" s="29"/>
-      <c r="R136" s="29"/>
-      <c r="S136" s="29"/>
-      <c r="T136" s="29"/>
-      <c r="U136" s="29"/>
-      <c r="V136" s="29"/>
-      <c r="W136" s="29"/>
+      <c r="K136" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="28"/>
+      <c r="R136" s="28"/>
+      <c r="S136" s="28"/>
+      <c r="T136" s="28"/>
+      <c r="U136" s="28"/>
+      <c r="V136" s="28"/>
+      <c r="W136" s="28"/>
     </row>
     <row r="137" spans="1:23" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C137" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2020</v>
+      </c>
       <c r="D137" s="2" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>453</v>
+        <v>408</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>89</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="31"/>
-      <c r="Q137" s="29"/>
-      <c r="R137" s="29"/>
-      <c r="S137" s="29"/>
-      <c r="T137" s="29"/>
-      <c r="U137" s="29"/>
-      <c r="V137" s="29"/>
-      <c r="W137" s="29"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="28"/>
+      <c r="R137" s="28"/>
+      <c r="S137" s="28"/>
+      <c r="T137" s="28"/>
+      <c r="U137" s="28"/>
+      <c r="V137" s="28"/>
+      <c r="W137" s="28"/>
     </row>
     <row r="138" spans="1:23" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C138" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2007</v>
+      </c>
       <c r="D138" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>117</v>
+        <v>389</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
-      <c r="P138" s="31"/>
-      <c r="Q138" s="29"/>
-      <c r="R138" s="29"/>
-      <c r="S138" s="29"/>
-      <c r="T138" s="29"/>
-      <c r="U138" s="29"/>
-      <c r="V138" s="29"/>
-      <c r="W138" s="29"/>
+      <c r="P138" s="30"/>
+      <c r="Q138" s="28"/>
+      <c r="R138" s="28"/>
+      <c r="S138" s="28"/>
+      <c r="T138" s="28"/>
+      <c r="U138" s="28"/>
+      <c r="V138" s="28"/>
+      <c r="W138" s="28"/>
     </row>
     <row r="139" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A139" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="23"/>
+      <c r="L139" s="23"/>
+      <c r="M139" s="23"/>
+      <c r="N139" s="23"/>
+      <c r="O139" s="24"/>
       <c r="P139" s="30"/>
-      <c r="Q139" s="29"/>
-      <c r="R139" s="29"/>
-      <c r="S139" s="29"/>
-      <c r="T139" s="29"/>
-      <c r="U139" s="29"/>
-      <c r="V139" s="29"/>
-      <c r="W139" s="29"/>
+      <c r="Q139" s="28"/>
+      <c r="R139" s="28"/>
+      <c r="S139" s="28"/>
+      <c r="T139" s="28"/>
+      <c r="U139" s="28"/>
+      <c r="V139" s="28"/>
+      <c r="W139" s="28"/>
     </row>
     <row r="140" spans="1:23" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C140" s="2">
-        <v>2021</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>450</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>463</v>
+        <v>117</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>359</v>
+        <v>118</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>89</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
-      <c r="P140" s="31"/>
-      <c r="Q140" s="29"/>
-      <c r="R140" s="29"/>
-      <c r="S140" s="29"/>
-      <c r="T140" s="29"/>
-      <c r="U140" s="29"/>
-      <c r="V140" s="29"/>
-      <c r="W140" s="29"/>
+      <c r="P140" s="30"/>
+      <c r="Q140" s="28"/>
+      <c r="R140" s="28"/>
+      <c r="S140" s="28"/>
+      <c r="T140" s="28"/>
+      <c r="U140" s="28"/>
+      <c r="V140" s="28"/>
+      <c r="W140" s="28"/>
     </row>
     <row r="141" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="23"/>
-      <c r="I141" s="23"/>
-      <c r="J141" s="23"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="23"/>
-      <c r="M141" s="23"/>
-      <c r="N141" s="23"/>
-      <c r="O141" s="24"/>
-      <c r="P141" s="31"/>
-      <c r="Q141" s="29"/>
-      <c r="R141" s="29"/>
-      <c r="S141" s="29"/>
-      <c r="T141" s="29"/>
-      <c r="U141" s="29"/>
-      <c r="V141" s="29"/>
-      <c r="W141" s="29"/>
+      <c r="A141" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="30"/>
+      <c r="Q141" s="28"/>
+      <c r="R141" s="28"/>
+      <c r="S141" s="28"/>
+      <c r="T141" s="28"/>
+      <c r="U141" s="28"/>
+      <c r="V141" s="28"/>
+      <c r="W141" s="28"/>
     </row>
     <row r="142" spans="1:23" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C142" s="2">
-        <v>2007</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
-      <c r="P142" s="31"/>
-      <c r="Q142" s="29"/>
-      <c r="R142" s="29"/>
-      <c r="S142" s="29"/>
-      <c r="T142" s="29"/>
-      <c r="U142" s="29"/>
-      <c r="V142" s="29"/>
-      <c r="W142" s="29"/>
+      <c r="P142" s="29"/>
+      <c r="Q142" s="28"/>
+      <c r="R142" s="28"/>
+      <c r="S142" s="28"/>
+      <c r="T142" s="28"/>
+      <c r="U142" s="28"/>
+      <c r="V142" s="28"/>
+      <c r="W142" s="28"/>
     </row>
     <row r="143" spans="1:23" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="C143" s="2">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>22</v>
+        <v>460</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>84</v>
+        <v>356</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="L143" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="30"/>
+      <c r="Q143" s="28"/>
+      <c r="R143" s="28"/>
+      <c r="S143" s="28"/>
+      <c r="T143" s="28"/>
+      <c r="U143" s="28"/>
+      <c r="V143" s="28"/>
+    </row>
+    <row r="144" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="23"/>
+      <c r="L144" s="23"/>
+      <c r="M144" s="23"/>
+      <c r="N144" s="23"/>
+      <c r="O144" s="24"/>
+      <c r="P144" s="30"/>
+      <c r="Q144" s="28"/>
+    </row>
+    <row r="145" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A145" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="M143" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="21"/>
-    </row>
-    <row r="144" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="25"/>
-      <c r="O144" s="26"/>
-      <c r="P144" s="21"/>
-    </row>
-    <row r="145" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A145" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="C145" s="2">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="N145" s="2"/>
-      <c r="O145" s="20"/>
-    </row>
-    <row r="146" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O145" s="2"/>
+      <c r="P145" s="30"/>
+    </row>
+    <row r="146" spans="1:16" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="C146" s="2">
         <v>2011</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J146" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H146" s="2" t="s">
+      <c r="K146" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M146" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L146" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="20"/>
-    </row>
-    <row r="147" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A147" s="1" t="s">
+      <c r="P146" s="21"/>
+    </row>
+    <row r="147" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="26"/>
+      <c r="P147" s="21"/>
+    </row>
+    <row r="148" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A148" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="20"/>
+    </row>
+    <row r="149" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="20"/>
+    </row>
+    <row r="150" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="G150" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="I150" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J150" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K150" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="L150" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F151" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="G151" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="H151" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="I151" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="J151" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J152" s="34"/>
+    </row>
+    <row r="153" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J153" s="34"/>
+    </row>
+    <row r="154" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A148" s="1" t="s">
+      <c r="J154" s="34"/>
+    </row>
+    <row r="155" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J155" s="34"/>
+    </row>
+    <row r="156" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A156" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A149" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
+      <c r="C156" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J156" s="34"/>
+    </row>
+    <row r="157" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="B157" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1993</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O158" s="32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O159" s="32" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A160" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O160" s="32" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A151" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C151" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A152" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C152" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A153" s="1" t="s">
+    <row r="161" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A161" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C153" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A154" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B154" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="C154" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A163" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A155" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C155" s="1">
-        <v>1993</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O155" s="33" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A156" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B156" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="C156" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O156" s="33" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A157" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B157" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="C157" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O157" s="33" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A158" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A159" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A160" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>516</v>
+      <c r="D163" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A164" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -6680,11 +7221,12 @@
     <hyperlink ref="O29" r:id="rId27"/>
     <hyperlink ref="O31" r:id="rId28"/>
     <hyperlink ref="O32" r:id="rId29"/>
-    <hyperlink ref="O155" r:id="rId30"/>
-    <hyperlink ref="O156" r:id="rId31"/>
-    <hyperlink ref="O157" r:id="rId32"/>
+    <hyperlink ref="O158" r:id="rId30"/>
+    <hyperlink ref="O159" r:id="rId31"/>
+    <hyperlink ref="O160" r:id="rId32"/>
+    <hyperlink ref="O73" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Аркуш1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Аркуш1!$E$146:$M$149</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="926">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -82,9 +79,6 @@
     <t xml:space="preserve">Black Box</t>
   </si>
   <si>
-    <t xml:space="preserve">sas</t>
-  </si>
-  <si>
     <t xml:space="preserve">128 МБ</t>
   </si>
   <si>
@@ -514,9 +508,6 @@
     <t xml:space="preserve">Deck13</t>
   </si>
   <si>
-    <t xml:space="preserve">sl</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMD FX-8320 (3,5 GHz) / Intel i5-4690K (3,5 GHz)</t>
   </si>
   <si>
@@ -658,9 +649,6 @@
     <t xml:space="preserve">Studio MDHR Entertainment Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">sl, pf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intel Core2 Duo E8400, 3.0GHz/AMD Athlon 64 X2 6000+, 3.0GHz</t>
   </si>
   <si>
@@ -718,9 +706,6 @@
     <t xml:space="preserve">Quantic Dream</t>
   </si>
   <si>
-    <t xml:space="preserve">kino</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pentium III 800 MHz</t>
   </si>
   <si>
@@ -847,9 +832,6 @@
     <t xml:space="preserve">Crytek</t>
   </si>
   <si>
-    <t xml:space="preserve">sandbox</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intel Core i5-3450/AMD Ryzen 3</t>
   </si>
   <si>
@@ -1270,9 +1252,6 @@
     <t xml:space="preserve">Nvidia GPU GeForce GTX 770 / AMD GPU Radeon R9 290</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows 7 64-bit, Windows 10 (64-bit)</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://images2.alphacoders.com/676/thumb-1920-676622.jpg</t>
   </si>
   <si>
@@ -1357,7 +1336,16 @@
     <t xml:space="preserve">Dice</t>
   </si>
   <si>
-    <t xml:space="preserve">81 GB</t>
+    <t xml:space="preserve">500 MHz CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 MB, GeForce 2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 MHz, Pentium III or Athlon XP</t>
   </si>
   <si>
     <t xml:space="preserve">https://i.redditmedia.com/vqHuIiHlGfzR4IVYH2hybXO8ANZxX3VWvn6JFgD88_c.jpg?w=1024&amp;s=07bd414e31a6a6b9a35996c3f50ca2ce</t>
@@ -1366,13 +1354,40 @@
     <t xml:space="preserve">Battlefield: 2142</t>
   </si>
   <si>
+    <t xml:space="preserve">1.7GHz, Pentium 4 or equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 Mb, NVIDIA GeForce 5700FX/ATI Radeon 9500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 GHz, Pentium 4 or equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 MB, NVIDIA GeForce 6800/ATI Radeon X1300</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://media.rawg.io/media/games/853/853c729f33a1a27935af11d083665761.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Battlefield: Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">79 GB</t>
+    <t xml:space="preserve">933 MHz, Pentium III or Athlon XP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 MB, NVIDIA GeForce3+ /ATI Radeon 8500+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GHz, Pentium 4 or Athlon XP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 Mb, NVIDIA GeForce3+ /ATI Radeon 8500+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://se.itorrents-igruha.org/4344-battlefield-vietnam-1.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://5b0988e595225.cdn.sohucs.com/images/20180518/9244ebd8991847ec899b81b73c9d70ba.jpg</t>
@@ -1381,7 +1396,10 @@
     <t xml:space="preserve">Battlefield 2</t>
   </si>
   <si>
-    <t xml:space="preserve">78 GB</t>
+    <t xml:space="preserve">1.7 GHz, Pentium 4 or Athlon XP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://se.itorrents-igruha.org/1087-5346-02-battlefield-2-repack-ot-canek77-free-2.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://wallpapercave.com/wp/wp6949138.jpg</t>
@@ -1390,7 +1408,13 @@
     <t xml:space="preserve">Battlefield: Heroes</t>
   </si>
   <si>
-    <t xml:space="preserve">77 GB</t>
+    <t xml:space="preserve">1 GHz, Pentium 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64MB, AMD Radeon 9000 Series/NVIDIA GeForce FX 5600 XT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 GHz, Intel Pentium 4 / AMD Athlon XP 1500+</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ubackground.com/_ph/11/358072606.jpg</t>
@@ -1630,7 +1654,22 @@
     <t xml:space="preserve">Rockstar Game</t>
   </si>
   <si>
-    <t xml:space="preserve">sandbox, aa</t>
+    <t xml:space="preserve">Intel Core i5-2500K / AMD FX-6300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nvidia GeForce GTX 770 2GB / AMD Radeon R9 280 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-4770K / AMD Ryzen 5 1500X </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nvidia GeForce GTX 1060 6GB / AMD Radeon RX 480 4GB </t>
   </si>
   <si>
     <t xml:space="preserve">https://images7.alphacoders.com/749/thumb-1920-749807.png</t>
@@ -1663,10 +1702,25 @@
     <t xml:space="preserve">Illusion Softworks</t>
   </si>
   <si>
-    <t xml:space="preserve">aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 GB</t>
+    <t xml:space="preserve">128 MB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 MHz, Pentium III / Athlon XP 1600+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 MB video card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">700 MHz, Pentium III / Athlon XP 1600+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 MB video card </t>
   </si>
   <si>
     <t xml:space="preserve">https://images7.alphacoders.com/107/1076941.png</t>
@@ -1678,7 +1732,19 @@
     <t xml:space="preserve">2K Czech</t>
   </si>
   <si>
-    <t xml:space="preserve">52 GB</t>
+    <t xml:space="preserve">3 GHz, Intel Pentium Dual Core / AMD Athlon 64 X2 3600+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 MB, NVIDIA GeForce 8600 / ATI Radeon HD 2600 Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows XP SP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 GHz Quad Core processor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 MB, NVIDIA GeForce 9800 GTX / ATI Radeon HD 3870 </t>
   </si>
   <si>
     <t xml:space="preserve">https://images2.alphacoders.com/203/thumb-1920-203422.jpg</t>
@@ -1687,7 +1753,19 @@
     <t xml:space="preserve">Mafia III</t>
   </si>
   <si>
-    <t xml:space="preserve">51 GB</t>
+    <t xml:space="preserve">6 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel I5-2500K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 GB, NVIDIA GeForce GTX 660/AMD Radeon HD7870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel I7-3770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 GB, NVIDIA GeForce GTX 780/AMD Radeon R9 290X</t>
   </si>
   <si>
     <t xml:space="preserve">https://wallpapercave.com/wp/wp2239384.jpg</t>
@@ -1699,19 +1777,61 @@
     <t xml:space="preserve">Rockstar North</t>
   </si>
   <si>
+    <t xml:space="preserve">96 MB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">450 MHz, Pentium 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 MB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">700 MHz CPU </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://wallpaperaccess.com/full/1443968.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">GTA: Vice city</t>
   </si>
   <si>
+    <t xml:space="preserve">800 Mhz, Intel Pentium 3 / AMD Athlon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 MB Video Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentium 4 / Athlon XP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 MB, GeForce 3 / Radeon 8500</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://wallpaperaccess.com/full/1614506.png</t>
   </si>
   <si>
     <t xml:space="preserve">GTA: San Andreas</t>
   </si>
   <si>
-    <t xml:space="preserve">48 GB</t>
+    <t xml:space="preserve">256 MB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GHz,Pentium 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 MB, Geforce 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Pentium 4/AMD Athlon XP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 MB Video Card</t>
   </si>
   <si>
     <t xml:space="preserve">https://i0.wp.com/d9n64ieh9hz8y.cloudfront.net/wp-content/uploads/20141024060018/NEWS_GTASAREMASTER-2.jpg?fit=1920%2C1080&amp;ssl=1</t>
@@ -1720,13 +1840,40 @@
     <t xml:space="preserve">GTA 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Intel Core 2 Duo 1.8 GHz / AMD Athlon X2 64 2.4 GHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 MB, NVIDIA 7900+ / ATI X1900+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows XP SP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core 2 Quad 2.4 GHz / AMD Phenom X3 2.1 GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 MB, NVIDIA 8600+ / ATI 3870+ </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://wallpaperaccess.com/full/1482238.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">GTA 5</t>
   </si>
   <si>
-    <t xml:space="preserve">44 GB</t>
+    <t xml:space="preserve">2.4 GHz, Intel Core 2 Quad Q6600 / AMD Phenom 9850 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1GB, NVIDIA 9800 GT / AMD HD 4870 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i5 3470 3.2GHZ / AMD FX-8350 4GHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 GB, NVIDIA GTX 660 / AMD HD7870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 8.1 (64-Bit)</t>
   </si>
   <si>
     <t xml:space="preserve">https://i.pinimg.com/originals/4e/00/58/4e0058c804332082ffad4fec1b81e1d3.jpg</t>
@@ -1735,10 +1882,19 @@
     <t xml:space="preserve">Far Cry</t>
   </si>
   <si>
-    <t xml:space="preserve">rpg, aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 GB</t>
+    <t xml:space="preserve">1 Ghz, Pentium 3 or Athlon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 MB, GeForce2+ / Radeon 8500+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 MB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentium 4 or Athlon XP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 MB, GeForce FX+ / Radeon 9500+</t>
   </si>
   <si>
     <t xml:space="preserve">https://images5.alphacoders.com/519/thumb-1920-519614.jpg</t>
@@ -1759,9 +1915,6 @@
     <t xml:space="preserve">256 MB, NVIDIA GeForce 6800 /ATi Radeon X1650</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows XP SP2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intel Core 2 Duo/AMD Athlon 64 X2 5200+</t>
   </si>
   <si>
@@ -1774,7 +1927,16 @@
     <t xml:space="preserve">Far Cry 3</t>
   </si>
   <si>
-    <t xml:space="preserve">41 GB</t>
+    <t xml:space="preserve">Intel Core 2 Duo E6700/AMD Athlon64 X2 6000+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 MB, Nvidia 8800 GTX/AMD Radeon HD 2900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i3-530/AMD Phenom II X2 565 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GB, Nvidia GTX 480/AMD Radeon HD 5770 </t>
   </si>
   <si>
     <t xml:space="preserve">https://wallpapercave.com/wp/wp1833955.jpg</t>
@@ -1786,6 +1948,40 @@
     <t xml:space="preserve">Ubisoft Montreal, Ubisoft Kyiv</t>
   </si>
   <si>
+    <t xml:space="preserve">Intel Core i5-750  2.6 GHz / AMD Phenom II X4 955 3.2 GHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GB, NVIDIA GeForce GTX 460 or AMD Radeon HD5850 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i5-2400S 2.5 GHz / AMD FX-8350 4.0 GHz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 GB, NVIDIA GeForce GTX 680 or AMD Radeon R9 290X  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Windows 8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(64-bit)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">https://images2.alphacoders.com/664/664487.jpg</t>
   </si>
   <si>
@@ -1822,9 +2018,6 @@
     <t xml:space="preserve">Remedy Entertainment</t>
   </si>
   <si>
-    <t xml:space="preserve">shooter</t>
-  </si>
-  <si>
     <t xml:space="preserve">36 GB</t>
   </si>
   <si>
@@ -1883,9 +2076,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Witcher </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://wallpaper.dog/large/976610.jpg</t>
@@ -2641,7 +2831,7 @@
     <numFmt numFmtId="165" formatCode="\ * #,##0.00&quot;   &quot;;\-* #,##0.00&quot;   &quot;;\ * \-#&quot;   &quot;;\ @\ "/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2736,6 +2926,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2860,7 +3057,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2891,6 +3088,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3017,6 +3218,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3025,12 +3230,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -3049,11 +3270,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3065,7 +3282,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3077,7 +3294,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3119,15 +3336,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3180,19 +3388,15 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF202124"/>
       <rgbColor rgb="FF202122"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF202124"/>
+      <rgbColor rgb="FF212529"/>
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3202,8 +3406,8 @@
   </sheetPr>
   <dimension ref="A1:V226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3284,46 +3488,44 @@
       <c r="C2" s="4" t="n">
         <v>2003</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
@@ -3331,46 +3533,44 @@
       <c r="C3" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -3378,46 +3578,44 @@
       <c r="C4" s="4" t="n">
         <v>2005</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -3425,234 +3623,224 @@
       <c r="C5" s="4" t="n">
         <v>2006</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>2009</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -3660,4450 +3848,4681 @@
       <c r="C10" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="D16" s="5"/>
+      <c r="N16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="14" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="13" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="M18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="O18" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="14" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="13" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="H19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="J19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="M19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="O19" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="16" t="s">
+      <c r="M21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="O21" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>181</v>
+        <v>192</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="M22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="O22" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>181</v>
+        <v>199</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="J23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="L23" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="M23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="O23" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="J24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="O24" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="M25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="O25" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2005</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>232</v>
+      <c r="J27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>231</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="O28" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>231</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>238</v>
+        <v>83</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>231</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="K30" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="M30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="O30" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="J30" s="25" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>231</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>224</v>
+        <v>257</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
-        <v>264</v>
+      <c r="A32" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>84</v>
+      <c r="D32" s="5"/>
+      <c r="E32" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="M32" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>274</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>274</v>
-      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K38" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>308</v>
+      <c r="A40" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>184</v>
+        <v>332</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>351</v>
+        <v>345</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>346</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>346</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>365</v>
+        <v>359</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C51" s="32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="25" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
+      <c r="H51" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="I51" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C51" s="31" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="24" t="s">
+      <c r="J51" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="K51" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="L51" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="M51" s="24" t="s">
-        <v>376</v>
+      <c r="M51" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="32" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H52" s="25" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
+      <c r="I52" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="J52" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="C52" s="31" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="F52" s="24" t="s">
+      <c r="L52" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="G52" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="J52" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>386</v>
+      <c r="M52" s="25" t="s">
+        <v>381</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C53" s="31" t="n">
+      <c r="A53" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C53" s="32" t="n">
         <v>2004</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>386</v>
+      <c r="D53" s="33"/>
+      <c r="E53" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>381</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" s="32" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="I54" s="25" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24" t="s">
+      <c r="J54" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C54" s="31" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="33" t="s">
+      <c r="L54" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="G54" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>397</v>
+      <c r="M54" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" s="32" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="I55" s="25" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
+      <c r="J55" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K55" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C55" s="31" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="24" t="s">
+      <c r="L55" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="M55" s="25" t="s">
         <v>404</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>409</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C56" s="31" t="n">
+      <c r="A56" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="32" t="n">
         <v>2016</v>
       </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="I56" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M56" s="24" t="s">
-        <v>415</v>
+      <c r="M56" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C57" s="31" t="n">
+      <c r="A57" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="24" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="G57" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="L57" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="M57" s="24" t="s">
-        <v>137</v>
+      <c r="H57" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M57" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="34" t="s">
-        <v>424</v>
+      <c r="E58" s="35" t="s">
+        <v>418</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="L58" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>137</v>
+        <v>407</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="P58" s="37"/>
+        <v>424</v>
+      </c>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="24" t="s">
-        <v>100</v>
+      <c r="E59" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>75</v>
+        <v>340</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="24" t="s">
-        <v>95</v>
+      <c r="E60" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>409</v>
+        <v>431</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J60" s="38" t="s">
-        <v>427</v>
+        <v>432</v>
+      </c>
+      <c r="J60" s="39" t="s">
+        <v>421</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="10"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>2002</v>
       </c>
+      <c r="E62" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I62" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>2006</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>137</v>
+      <c r="E63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>137</v>
+      <c r="E64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L64" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>2005</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>137</v>
+      <c r="E65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>2009</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>137</v>
+      <c r="E66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="L66" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C70" s="39" t="n">
+        <v>437</v>
+      </c>
+      <c r="C70" s="41" t="n">
         <v>2016</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="s">
-        <v>475</v>
+      <c r="A73" s="29" t="s">
+        <v>484</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O73" s="40" t="s">
-        <v>478</v>
+        <v>136</v>
+      </c>
+      <c r="O73" s="42" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>480</v>
+        <v>488</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>489</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>491</v>
+        <v>499</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>500</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>491</v>
+        <v>503</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>500</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>491</v>
+        <v>506</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>500</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>501</v>
+        <v>509</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>510</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>1998</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>2004</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>137</v>
+      <c r="E92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F92" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="H92" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I92" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="J92" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="K92" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="L92" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="E93" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>545</v>
-      </c>
-      <c r="C94" s="30" t="n">
+        <v>558</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="C94" s="31" t="n">
         <v>2002</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>137</v>
+      <c r="E94" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="H94" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="I94" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="L94" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>137</v>
+      <c r="E95" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J95" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="K95" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L95" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="M95" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>137</v>
+      <c r="E96" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="B97" s="30" t="s">
-        <v>557</v>
+        <v>583</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>584</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>2001</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>137</v>
+      <c r="E97" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="J97" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="K97" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="L97" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="B98" s="30" t="s">
-        <v>557</v>
+        <v>590</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>584</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>137</v>
+      <c r="E98" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J98" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="L98" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>557</v>
+        <v>596</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>584</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>137</v>
+      <c r="E99" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J99" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="K99" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>563</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="B100" s="30" t="s">
-        <v>557</v>
+        <v>605</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>584</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>137</v>
+      <c r="E100" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="F100" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="G100" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="L100" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="M100" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>565</v>
+        <v>611</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="B101" s="30" t="s">
-        <v>557</v>
+        <v>612</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>584</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>137</v>
+      <c r="E101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>613</v>
+      </c>
+      <c r="G101" s="36" t="s">
+        <v>614</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J101" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="K101" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="L101" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="M101" s="36" t="s">
+        <v>617</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>570</v>
+      <c r="E102" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="F102" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>600</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+      <c r="J102" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="K102" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M102" s="35" t="s">
+        <v>349</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="P102" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="Q102" s="42" t="s">
-        <v>573</v>
+      <c r="Q102" s="47" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E103" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="39" t="s">
-        <v>576</v>
-      </c>
-      <c r="G103" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="H103" s="39" t="s">
-        <v>578</v>
-      </c>
-      <c r="I103" s="39" t="s">
+      <c r="E103" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="J103" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K103" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="L103" s="39" t="s">
-        <v>580</v>
+      <c r="F103" s="41" t="s">
+        <v>629</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>630</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="I103" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J103" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K103" s="41" t="s">
+        <v>631</v>
+      </c>
+      <c r="L103" s="41" t="s">
+        <v>632</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>570</v>
+      <c r="E104" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="F104" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="G104" s="46" t="s">
+        <v>636</v>
+      </c>
+      <c r="H104" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
+      </c>
+      <c r="J104" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="K104" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="L104" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="M104" s="35" t="s">
+        <v>335</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>586</v>
+        <v>640</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>641</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>570</v>
+      <c r="E105" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="G105" s="46" t="s">
+        <v>643</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="J105" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="K105" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="L105" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="M105" s="46" t="s">
+        <v>646</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>587</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>586</v>
+        <v>648</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>641</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="I106" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="J106" s="48"/>
       <c r="M106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>590</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>591</v>
+        <v>651</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="I107" s="1" t="s">
-        <v>592</v>
+        <v>652</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>593</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="I108" s="1" t="s">
-        <v>595</v>
+        <v>655</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>596</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>598</v>
+        <v>657</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>658</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>2001</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="I109" s="1" t="s">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B110" s="43" t="s">
-        <v>598</v>
+        <v>661</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>658</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>2003</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="I110" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>605</v>
+        <v>663</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>664</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="I111" s="1" t="s">
-        <v>606</v>
+        <v>665</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>607</v>
+        <v>666</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>608</v>
+        <v>667</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>609</v>
+        <v>668</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>610</v>
+        <v>669</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>611</v>
+        <v>670</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>612</v>
+        <v>671</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>613</v>
+        <v>672</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>614</v>
+        <v>673</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>615</v>
+        <v>674</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>616</v>
+        <v>675</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>613</v>
+        <v>672</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>617</v>
+        <v>676</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>618</v>
+        <v>677</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>619</v>
+        <v>678</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I115" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>621</v>
+        <v>679</v>
       </c>
       <c r="P115" s="2" t="n">
         <v>81</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>623</v>
+        <v>681</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I116" s="1" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>627</v>
+        <v>684</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>685</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>633</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>634</v>
+        <v>692</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>2006</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I119" s="1" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>636</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="C120" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I120" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>640</v>
+        <v>698</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>1996</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I121" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>643</v>
+        <v>701</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I122" s="1" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>645</v>
+        <v>703</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>646</v>
+        <v>704</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>647</v>
+        <v>705</v>
       </c>
       <c r="C123" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="I123" s="1" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="11"/>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="10"/>
-      <c r="S124" s="10"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="13"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>655</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>657</v>
+        <v>715</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>658</v>
+        <v>716</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C128" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>660</v>
+        <v>718</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>662</v>
+        <v>720</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>664</v>
+        <v>722</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="B131" s="43" t="s">
-        <v>666</v>
+        <v>723</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>724</v>
       </c>
       <c r="C131" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>668</v>
+        <v>726</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="B132" s="44" t="s">
-        <v>670</v>
+      <c r="A132" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>728</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>671</v>
+        <v>729</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="45"/>
-      <c r="Q133" s="12"/>
-      <c r="R133" s="10"/>
-      <c r="S133" s="10"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="13"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>673</v>
+        <v>730</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>731</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>675</v>
+        <v>733</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>675</v>
+        <v>733</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N134" s="4"/>
       <c r="O134" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="P134" s="46"/>
+        <v>734</v>
+      </c>
+      <c r="P134" s="52"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="B135" s="18" t="s">
-        <v>678</v>
+        <v>735</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>736</v>
       </c>
       <c r="C135" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>679</v>
+        <v>737</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>681</v>
+        <v>739</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>682</v>
+        <v>740</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N135" s="4"/>
-      <c r="O135" s="47" t="s">
-        <v>684</v>
+      <c r="O135" s="45" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="B136" s="18" t="s">
-        <v>686</v>
+        <v>743</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>744</v>
       </c>
       <c r="C136" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H136" s="16" t="s">
-        <v>689</v>
+        <v>746</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>747</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N136" s="4"/>
       <c r="O136" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="P136" s="46"/>
+        <v>748</v>
+      </c>
+      <c r="P136" s="52"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="45"/>
-      <c r="Q137" s="12"/>
-      <c r="R137" s="10"/>
-      <c r="S137" s="10"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="51"/>
+      <c r="Q137" s="13"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B138" s="18" t="s">
-        <v>692</v>
+        <v>749</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>750</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="G138" s="48" t="s">
-        <v>694</v>
+        <v>751</v>
+      </c>
+      <c r="G138" s="53" t="s">
+        <v>752</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>696</v>
+        <v>754</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N138" s="4"/>
       <c r="O138" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="P138" s="46"/>
+        <v>755</v>
+      </c>
+      <c r="P138" s="52"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>698</v>
+        <v>756</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>699</v>
+        <v>757</v>
       </c>
       <c r="C139" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>700</v>
+        <v>758</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>701</v>
+        <v>759</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>700</v>
+        <v>758</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>701</v>
+        <v>759</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N139" s="4"/>
       <c r="O139" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="P139" s="46"/>
+        <v>760</v>
+      </c>
+      <c r="P139" s="52"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>703</v>
+        <v>761</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>699</v>
+        <v>757</v>
       </c>
       <c r="C140" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>704</v>
+        <v>762</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>705</v>
+        <v>763</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>706</v>
+        <v>764</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>707</v>
+        <v>765</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N140" s="4"/>
       <c r="O140" s="4" t="s">
-        <v>708</v>
+        <v>766</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>692</v>
+        <v>750</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>710</v>
+        <v>768</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>711</v>
+        <v>769</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>712</v>
+        <v>770</v>
       </c>
       <c r="I141" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J141" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="K141" s="4" t="s">
-        <v>713</v>
+        <v>771</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>714</v>
+        <v>772</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N141" s="4"/>
       <c r="O141" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="P141" s="46"/>
+        <v>773</v>
+      </c>
+      <c r="P141" s="52"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="45"/>
-      <c r="Q142" s="12"/>
-      <c r="R142" s="10"/>
-      <c r="S142" s="10"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="51"/>
+      <c r="Q142" s="13"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>716</v>
+        <v>774</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>718</v>
+        <v>776</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>719</v>
+        <v>777</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>720</v>
+        <v>778</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N143" s="4"/>
       <c r="O143" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="P143" s="46"/>
+        <v>779</v>
+      </c>
+      <c r="P143" s="52"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>722</v>
+        <v>780</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C144" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>723</v>
+        <v>781</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J144" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="M144" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="N144" s="4"/>
       <c r="O144" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="P144" s="46"/>
+        <v>784</v>
+      </c>
+      <c r="P144" s="52"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="49"/>
-      <c r="P145" s="45"/>
-      <c r="Q145" s="12"/>
-      <c r="R145" s="10"/>
-      <c r="S145" s="10"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="54"/>
+      <c r="P145" s="51"/>
+      <c r="Q145" s="13"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>728</v>
+        <v>786</v>
       </c>
       <c r="C146" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>729</v>
+        <v>787</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>730</v>
+        <v>788</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>731</v>
+        <v>789</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N146" s="4"/>
-      <c r="O146" s="50"/>
+      <c r="O146" s="55"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>732</v>
+        <v>790</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>733</v>
+        <v>791</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="I147" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>736</v>
+        <v>794</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>737</v>
+        <v>795</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N147" s="4"/>
-      <c r="O147" s="50"/>
+      <c r="O147" s="55"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>738</v>
+        <v>796</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>739</v>
+        <v>797</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>740</v>
+        <v>798</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>741</v>
+        <v>799</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>742</v>
+        <v>800</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>743</v>
+        <v>801</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>744</v>
+        <v>802</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>745</v>
+        <v>803</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>746</v>
+        <v>804</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J149" s="38" t="s">
-        <v>100</v>
+        <v>393</v>
+      </c>
+      <c r="J149" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>747</v>
+        <v>805</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C150" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J150" s="51"/>
+      <c r="J150" s="56"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>750</v>
+        <v>808</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C151" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J151" s="51"/>
+      <c r="J151" s="56"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>751</v>
+        <v>809</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>752</v>
+        <v>810</v>
       </c>
       <c r="C152" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="J152" s="51"/>
+      <c r="J152" s="56"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>753</v>
+        <v>811</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>752</v>
+        <v>810</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="J153" s="51"/>
+      <c r="J153" s="56"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>754</v>
+        <v>812</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>752</v>
+        <v>810</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="J154" s="51"/>
+      <c r="J154" s="56"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>756</v>
+        <v>813</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>814</v>
       </c>
       <c r="C155" s="4" t="n">
         <v>2018</v>
@@ -8111,87 +8530,87 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>757</v>
+        <v>815</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>758</v>
+        <v>816</v>
       </c>
       <c r="C156" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>759</v>
+        <v>817</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>760</v>
+        <v>818</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>761</v>
+        <v>819</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>762</v>
+        <v>820</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N156" s="4"/>
-      <c r="O156" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="P156" s="37" t="n">
+      <c r="O156" s="42" t="s">
+        <v>823</v>
+      </c>
+      <c r="P156" s="38" t="n">
         <v>120</v>
       </c>
-      <c r="Q156" s="52" t="s">
-        <v>766</v>
+      <c r="Q156" s="57" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>768</v>
+        <v>825</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>826</v>
       </c>
       <c r="C157" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="O157" s="53" t="s">
-        <v>769</v>
+      <c r="O157" s="58" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>768</v>
+        <v>828</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>826</v>
       </c>
       <c r="C158" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="O158" s="53" t="s">
-        <v>771</v>
+      <c r="O158" s="58" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>772</v>
+        <v>830</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>773</v>
+        <v>831</v>
       </c>
       <c r="C159" s="4" t="n">
         <v>2021</v>
@@ -8199,10 +8618,10 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>774</v>
+        <v>832</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>773</v>
+        <v>831</v>
       </c>
       <c r="C160" s="4" t="n">
         <v>2016</v>
@@ -8210,10 +8629,10 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>775</v>
+        <v>833</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="C161" s="4" t="n">
         <v>2018</v>
@@ -8221,10 +8640,10 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B162" s="43" t="s">
-        <v>778</v>
+        <v>835</v>
+      </c>
+      <c r="B162" s="49" t="s">
+        <v>836</v>
       </c>
       <c r="C162" s="4" t="n">
         <v>2018</v>
@@ -8232,10 +8651,10 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>779</v>
+        <v>837</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>780</v>
+        <v>838</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>2015</v>
@@ -8243,10 +8662,10 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B164" s="43" t="s">
-        <v>782</v>
+        <v>839</v>
+      </c>
+      <c r="B164" s="49" t="s">
+        <v>840</v>
       </c>
       <c r="C164" s="4" t="n">
         <v>1994</v>
@@ -8254,10 +8673,10 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B165" s="43" t="s">
-        <v>782</v>
+        <v>841</v>
+      </c>
+      <c r="B165" s="49" t="s">
+        <v>840</v>
       </c>
       <c r="C165" s="4" t="n">
         <v>1997</v>
@@ -8265,10 +8684,10 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="B166" s="43" t="s">
-        <v>782</v>
+        <v>842</v>
+      </c>
+      <c r="B166" s="49" t="s">
+        <v>840</v>
       </c>
       <c r="C166" s="4" t="n">
         <v>1998</v>
@@ -8276,10 +8695,10 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B167" s="54" t="s">
-        <v>786</v>
+        <v>843</v>
+      </c>
+      <c r="B167" s="59" t="s">
+        <v>844</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>1999</v>
@@ -8287,10 +8706,10 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>787</v>
+        <v>845</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>788</v>
+        <v>846</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>2003</v>
@@ -8298,10 +8717,10 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>789</v>
+        <v>847</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>788</v>
+        <v>846</v>
       </c>
       <c r="C169" s="4" t="n">
         <v>2005</v>
@@ -8309,10 +8728,10 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B170" s="55" t="s">
-        <v>791</v>
+        <v>848</v>
+      </c>
+      <c r="B170" s="60" t="s">
+        <v>849</v>
       </c>
       <c r="C170" s="4" t="n">
         <v>2006</v>
@@ -8320,10 +8739,10 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="B171" s="56" t="s">
-        <v>793</v>
+        <v>850</v>
+      </c>
+      <c r="B171" s="61" t="s">
+        <v>851</v>
       </c>
       <c r="C171" s="4" t="n">
         <v>2008</v>
@@ -8331,10 +8750,10 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="B172" s="36" t="s">
-        <v>795</v>
+        <v>852</v>
+      </c>
+      <c r="B172" s="37" t="s">
+        <v>853</v>
       </c>
       <c r="C172" s="4" t="n">
         <v>2013</v>
@@ -8342,10 +8761,10 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>796</v>
+        <v>854</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>797</v>
+        <v>855</v>
       </c>
       <c r="C173" s="4" t="n">
         <v>2014</v>
@@ -8353,10 +8772,10 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="B174" s="57" t="s">
-        <v>799</v>
+        <v>856</v>
+      </c>
+      <c r="B174" s="62" t="s">
+        <v>857</v>
       </c>
       <c r="C174" s="4" t="n">
         <v>2016</v>
@@ -8364,10 +8783,10 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>800</v>
+        <v>858</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="C175" s="4" t="n">
         <v>2020</v>
@@ -8375,10 +8794,10 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>797</v>
+        <v>855</v>
       </c>
       <c r="C176" s="4" t="n">
         <v>2017</v>
@@ -8386,10 +8805,10 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>803</v>
+        <v>861</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>2009</v>
@@ -8397,10 +8816,10 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>804</v>
+        <v>862</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C178" s="4" t="n">
         <v>2019</v>
@@ -8408,10 +8827,10 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>805</v>
+        <v>863</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>806</v>
+        <v>864</v>
       </c>
       <c r="C179" s="4" t="n">
         <v>2006</v>
@@ -8419,10 +8838,10 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>807</v>
+        <v>865</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>808</v>
+        <v>866</v>
       </c>
       <c r="C180" s="4" t="n">
         <v>2002</v>
@@ -8430,10 +8849,10 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>809</v>
+        <v>867</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>810</v>
+        <v>868</v>
       </c>
       <c r="C181" s="4" t="n">
         <v>2002</v>
@@ -8441,10 +8860,10 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>811</v>
+        <v>869</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>812</v>
+        <v>870</v>
       </c>
       <c r="C182" s="4" t="n">
         <v>2003</v>
@@ -8452,10 +8871,10 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="B183" s="39" t="s">
-        <v>814</v>
+        <v>871</v>
+      </c>
+      <c r="B183" s="41" t="s">
+        <v>872</v>
       </c>
       <c r="C183" s="4" t="n">
         <v>2004</v>
@@ -8463,10 +8882,10 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>815</v>
+        <v>873</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>810</v>
+        <v>868</v>
       </c>
       <c r="C184" s="4" t="n">
         <v>2007</v>
@@ -8474,10 +8893,10 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>816</v>
+        <v>874</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>817</v>
+        <v>875</v>
       </c>
       <c r="C185" s="4" t="n">
         <v>2010</v>
@@ -8485,10 +8904,10 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>818</v>
+        <v>876</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>819</v>
+        <v>877</v>
       </c>
       <c r="C186" s="4" t="n">
         <v>2012</v>
@@ -8496,10 +8915,10 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>820</v>
+        <v>878</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C187" s="4" t="n">
         <v>2020</v>
@@ -8507,10 +8926,10 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>821</v>
+        <v>879</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>822</v>
+        <v>880</v>
       </c>
       <c r="C188" s="4" t="n">
         <v>2008</v>
@@ -8518,10 +8937,10 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>823</v>
+        <v>881</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>824</v>
+        <v>882</v>
       </c>
       <c r="C189" s="4" t="n">
         <v>2010</v>
@@ -8529,10 +8948,10 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>825</v>
+        <v>883</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>824</v>
+        <v>882</v>
       </c>
       <c r="C190" s="4" t="n">
         <v>2012</v>
@@ -8540,10 +8959,10 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>826</v>
+        <v>884</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>824</v>
+        <v>882</v>
       </c>
       <c r="C191" s="4" t="n">
         <v>2017</v>
@@ -8551,10 +8970,10 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>827</v>
+        <v>885</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>828</v>
+        <v>886</v>
       </c>
       <c r="C192" s="4" t="n">
         <v>2008</v>
@@ -8562,10 +8981,10 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>829</v>
+        <v>887</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>828</v>
+        <v>886</v>
       </c>
       <c r="C193" s="4" t="n">
         <v>2012</v>
@@ -8573,10 +8992,10 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>830</v>
+        <v>888</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>831</v>
+        <v>889</v>
       </c>
       <c r="C194" s="4" t="n">
         <v>2016</v>
@@ -8584,10 +9003,10 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="B195" s="36" t="s">
-        <v>833</v>
+        <v>890</v>
+      </c>
+      <c r="B195" s="37" t="s">
+        <v>891</v>
       </c>
       <c r="C195" s="4" t="n">
         <v>2005</v>
@@ -8595,10 +9014,10 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>834</v>
+        <v>892</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C196" s="4" t="n">
         <v>2002</v>
@@ -8606,21 +9025,21 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>835</v>
+        <v>893</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C197" s="4" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="36" t="s">
-        <v>836</v>
+      <c r="A198" s="37" t="s">
+        <v>894</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C198" s="4" t="n">
         <v>2006</v>
@@ -8628,10 +9047,10 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>837</v>
+        <v>895</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C199" s="4" t="n">
         <v>2016</v>
@@ -8639,32 +9058,32 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="B200" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="C200" s="36" t="n">
+        <v>896</v>
+      </c>
+      <c r="B200" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="C200" s="37" t="n">
         <v>2004</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B201" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="C201" s="36" t="n">
+        <v>898</v>
+      </c>
+      <c r="B201" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="C201" s="37" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>838</v>
+        <v>896</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C202" s="4" t="n">
         <v>2015</v>
@@ -8672,10 +9091,10 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C203" s="4" t="n">
         <v>2017</v>
@@ -8683,10 +9102,10 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
-        <v>841</v>
+        <v>899</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C204" s="4" t="n">
         <v>2007</v>
@@ -8694,10 +9113,10 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>842</v>
+        <v>900</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C205" s="4" t="n">
         <v>2009</v>
@@ -8705,10 +9124,10 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>843</v>
+        <v>901</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C206" s="4" t="n">
         <v>2012</v>
@@ -8716,10 +9135,10 @@
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
-        <v>844</v>
+        <v>902</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C207" s="4" t="n">
         <v>2013</v>
@@ -8727,10 +9146,10 @@
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>846</v>
+        <v>904</v>
       </c>
       <c r="C208" s="4" t="n">
         <v>2015</v>
@@ -8738,10 +9157,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>847</v>
+        <v>905</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C209" s="4" t="n">
         <v>2014</v>
@@ -8749,10 +9168,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="B210" s="36" t="s">
-        <v>849</v>
+        <v>906</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>907</v>
       </c>
       <c r="C210" s="4" t="n">
         <v>2015</v>
@@ -8760,10 +9179,10 @@
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>850</v>
+        <v>908</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C211" s="4" t="n">
         <v>2017</v>
@@ -8771,10 +9190,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="B212" s="36" t="s">
-        <v>849</v>
+        <v>909</v>
+      </c>
+      <c r="B212" s="37" t="s">
+        <v>907</v>
       </c>
       <c r="C212" s="4" t="n">
         <v>2018</v>
@@ -8782,10 +9201,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>852</v>
+        <v>910</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C213" s="4" t="n">
         <v>2020</v>
@@ -8793,10 +9212,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>853</v>
+        <v>911</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C214" s="4" t="n">
         <v>2010</v>
@@ -8804,87 +9223,87 @@
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>854</v>
+        <v>912</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C215" s="4" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="36" t="s">
-        <v>855</v>
+      <c r="A216" s="37" t="s">
+        <v>913</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="C216" s="4" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="58" t="s">
-        <v>857</v>
+      <c r="A217" s="63" t="s">
+        <v>915</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="C217" s="4" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="36" t="s">
-        <v>858</v>
+      <c r="A218" s="37" t="s">
+        <v>916</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="C218" s="4" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="58" t="s">
-        <v>859</v>
+      <c r="A219" s="63" t="s">
+        <v>917</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="C219" s="4" t="n">
         <v>2015</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="58" t="s">
-        <v>860</v>
+      <c r="A220" s="63" t="s">
+        <v>918</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="C220" s="4" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="36" t="s">
-        <v>861</v>
+      <c r="A221" s="37" t="s">
+        <v>919</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="C221" s="4" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="58" t="s">
-        <v>862</v>
+      <c r="A222" s="63" t="s">
+        <v>920</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="C222" s="4" t="n">
         <v>2020</v>
@@ -8892,10 +9311,10 @@
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>863</v>
+        <v>921</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="C223" s="4" t="n">
         <v>2021</v>
@@ -8903,10 +9322,10 @@
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>864</v>
+        <v>922</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>865</v>
+        <v>923</v>
       </c>
       <c r="C224" s="4" t="n">
         <v>2021</v>
@@ -8914,10 +9333,10 @@
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>866</v>
+        <v>924</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="C225" s="4" t="n">
         <v>2013</v>
@@ -8926,35 +9345,34 @@
         <v>61</v>
       </c>
       <c r="Q225" s="3" t="s">
-        <v>867</v>
+        <v>925</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="59"/>
-      <c r="B226" s="59"/>
-      <c r="C226" s="59"/>
-      <c r="D226" s="59"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
-      <c r="G226" s="59"/>
-      <c r="H226" s="59"/>
-      <c r="I226" s="59"/>
-      <c r="J226" s="59"/>
-      <c r="K226" s="59"/>
-      <c r="L226" s="59"/>
-      <c r="M226" s="59"/>
-      <c r="N226" s="59"/>
-      <c r="O226" s="59"/>
-      <c r="P226" s="60"/>
-      <c r="Q226" s="61"/>
-      <c r="R226" s="59"/>
-      <c r="S226" s="59"/>
-      <c r="T226" s="59"/>
-      <c r="U226" s="59"/>
-      <c r="V226" s="59"/>
+      <c r="A226" s="64"/>
+      <c r="B226" s="64"/>
+      <c r="C226" s="64"/>
+      <c r="D226" s="64"/>
+      <c r="E226" s="64"/>
+      <c r="F226" s="64"/>
+      <c r="G226" s="64"/>
+      <c r="H226" s="64"/>
+      <c r="I226" s="64"/>
+      <c r="J226" s="64"/>
+      <c r="K226" s="64"/>
+      <c r="L226" s="64"/>
+      <c r="M226" s="64"/>
+      <c r="N226" s="64"/>
+      <c r="O226" s="64"/>
+      <c r="P226" s="65"/>
+      <c r="Q226" s="66"/>
+      <c r="R226" s="64"/>
+      <c r="S226" s="64"/>
+      <c r="T226" s="64"/>
+      <c r="U226" s="64"/>
+      <c r="V226" s="64"/>
     </row>
   </sheetData>
-  <autoFilter ref="E146:M149"/>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" display="https://wallpaperaccess.com/full/2656085.jpg"/>
     <hyperlink ref="O3" r:id="rId2" display="https://i.pinimg.com/originals/13/a5/b3/13a5b388ce5d128433b889672f674079.jpg"/>
@@ -8970,26 +9388,27 @@
     <hyperlink ref="O13" r:id="rId12" display="https://vanstralenwrites.files.wordpress.com/2017/07/need-for-speede284a2_20151216153840-1.jpg"/>
     <hyperlink ref="O14" r:id="rId13" display="https://wallpapercave.com/wp/wp2267744.jpg"/>
     <hyperlink ref="O15" r:id="rId14" display="https://i.pinimg.com/originals/cd/91/90/cd9190a38df82b8c2a225fa6bce96f18.jpg"/>
-    <hyperlink ref="O16" r:id="rId15" display="https://wallpaperaccess.com/full/1217137.jpg"/>
-    <hyperlink ref="O18" r:id="rId16" display="https://images.alphacoders.com/813/thumb-1920-813915.jpg"/>
-    <hyperlink ref="O19" r:id="rId17" display="https://images.alphacoders.com/102/thumb-1920-1020779.jpg"/>
-    <hyperlink ref="O20" r:id="rId18" display="https://wallpapercave.com/wp/wp2158677.jpg"/>
-    <hyperlink ref="O21" r:id="rId19" display="https://wallpapercave.com/wp/wp1980923.jpg"/>
-    <hyperlink ref="O22" r:id="rId20" display="https://images5.alphacoders.com/609/thumb-1920-609173.jpg"/>
-    <hyperlink ref="O23" r:id="rId21" display="https://images5.alphacoders.com/981/thumb-1920-981500.jpg"/>
-    <hyperlink ref="O24" r:id="rId22" display="https://images.alphacoders.com/873/thumb-1920-873679.jpg"/>
-    <hyperlink ref="O25" r:id="rId23" display="https://images6.alphacoders.com/887/thumb-1920-887081.jpg"/>
-    <hyperlink ref="O27" r:id="rId24" display="https://i.pinimg.com/originals/92/ad/57/92ad57914d7447d6f793b9f2a1a01bab.jpg"/>
-    <hyperlink ref="O28" r:id="rId25" display="https://gagadget.com/media/post_big/Heavy_Rain_2019.jpg"/>
-    <hyperlink ref="O29" r:id="rId26" display="https://wallpapercave.com/wp/wp2010028.jpg"/>
-    <hyperlink ref="N30" r:id="rId27" display="https://se.itorrents-igruha.org/3412-8989-detroit-become-human-132.html"/>
-    <hyperlink ref="O30" r:id="rId28" display="https://wallpaperaccess.com/full/4336855.jpg"/>
-    <hyperlink ref="O31" r:id="rId29" display="https://wallpaperaccess.com/full/1237873.jpg"/>
-    <hyperlink ref="O32" r:id="rId30" display="https://i.playground.ru/p/lbvdN6APSIH8pQefPo5uyw.jpeg"/>
-    <hyperlink ref="O73" r:id="rId31" display="http://i2.hdslb.com/bfs/archive/12f129c5f97811a37e8a64d62b229fd6b98813c0.jpg"/>
-    <hyperlink ref="O156" r:id="rId32" display="https://s2.dmcdn.net/v/AuOrp1Ln4q7O8r4jO/x1080"/>
-    <hyperlink ref="O157" r:id="rId33" display="https://i.ytimg.com/vi/zfZTVDNIGNU/maxresdefault.jpg"/>
-    <hyperlink ref="O158" r:id="rId34" display="https://sm.ign.com/ign_it/screenshot/default/doom-eternal-keyart-3-1920x1080_sxj1.jpg"/>
+    <hyperlink ref="N16" r:id="rId15" display="https://brotorrent.net/938-1-need-for-speed-porsche-unleashed.html"/>
+    <hyperlink ref="O16" r:id="rId16" display="https://wallpaperaccess.com/full/1217137.jpg"/>
+    <hyperlink ref="O18" r:id="rId17" display="https://images.alphacoders.com/813/thumb-1920-813915.jpg"/>
+    <hyperlink ref="O19" r:id="rId18" display="https://images.alphacoders.com/102/thumb-1920-1020779.jpg"/>
+    <hyperlink ref="O20" r:id="rId19" display="https://wallpapercave.com/wp/wp2158677.jpg"/>
+    <hyperlink ref="O21" r:id="rId20" display="https://wallpapercave.com/wp/wp1980923.jpg"/>
+    <hyperlink ref="O22" r:id="rId21" display="https://images5.alphacoders.com/609/thumb-1920-609173.jpg"/>
+    <hyperlink ref="O23" r:id="rId22" display="https://images5.alphacoders.com/981/thumb-1920-981500.jpg"/>
+    <hyperlink ref="O24" r:id="rId23" display="https://images.alphacoders.com/873/thumb-1920-873679.jpg"/>
+    <hyperlink ref="O25" r:id="rId24" display="https://images6.alphacoders.com/887/thumb-1920-887081.jpg"/>
+    <hyperlink ref="O27" r:id="rId25" display="https://i.pinimg.com/originals/92/ad/57/92ad57914d7447d6f793b9f2a1a01bab.jpg"/>
+    <hyperlink ref="O28" r:id="rId26" display="https://gagadget.com/media/post_big/Heavy_Rain_2019.jpg"/>
+    <hyperlink ref="O29" r:id="rId27" display="https://wallpapercave.com/wp/wp2010028.jpg"/>
+    <hyperlink ref="N30" r:id="rId28" display="https://se.itorrents-igruha.org/3412-8989-detroit-become-human-132.html"/>
+    <hyperlink ref="O30" r:id="rId29" display="https://wallpaperaccess.com/full/4336855.jpg"/>
+    <hyperlink ref="O31" r:id="rId30" display="https://wallpaperaccess.com/full/1237873.jpg"/>
+    <hyperlink ref="O32" r:id="rId31" display="https://i.playground.ru/p/lbvdN6APSIH8pQefPo5uyw.jpeg"/>
+    <hyperlink ref="O73" r:id="rId32" display="http://i2.hdslb.com/bfs/archive/12f129c5f97811a37e8a64d62b229fd6b98813c0.jpg"/>
+    <hyperlink ref="O156" r:id="rId33" display="https://s2.dmcdn.net/v/AuOrp1Ln4q7O8r4jO/x1080"/>
+    <hyperlink ref="O157" r:id="rId34" display="https://i.ytimg.com/vi/zfZTVDNIGNU/maxresdefault.jpg"/>
+    <hyperlink ref="O158" r:id="rId35" display="https://sm.ign.com/ign_it/screenshot/default/doom-eternal-keyart-3-1920x1080_sxj1.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8998,6 +9417,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId35"/>
 </worksheet>
 </file>